--- a/output/20230717 - DRG - vc - 18KDh19A808G-120mV.xlsx
+++ b/output/20230717 - DRG - vc - 18KDh19A808G-120mV.xlsx
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,243 +594,163 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>23.482</v>
+      </c>
+      <c r="C2">
+        <v>17.291</v>
+      </c>
+      <c r="D2">
+        <v>14.814</v>
+      </c>
+      <c r="E2">
+        <v>24.611</v>
+      </c>
+      <c r="F2">
+        <v>10.185</v>
+      </c>
+      <c r="G2">
+        <v>35.97</v>
+      </c>
+      <c r="H2">
+        <v>22.039</v>
+      </c>
+      <c r="I2">
+        <v>16.546</v>
+      </c>
+      <c r="J2">
+        <v>26.104</v>
+      </c>
+      <c r="K2">
+        <v>20.883</v>
+      </c>
+      <c r="L2">
+        <v>11.042</v>
+      </c>
+      <c r="M2">
+        <v>16.857</v>
+      </c>
+      <c r="N2">
+        <v>13.494</v>
+      </c>
+      <c r="O2">
+        <v>8.6663</v>
+      </c>
+      <c r="P2">
+        <v>10.638</v>
+      </c>
+      <c r="Q2">
+        <v>17.925</v>
+      </c>
+      <c r="R2">
+        <v>14.245</v>
+      </c>
+      <c r="S2">
+        <v>14.022</v>
+      </c>
+      <c r="T2">
+        <v>19.448</v>
+      </c>
+      <c r="U2">
+        <v>15.148</v>
+      </c>
+      <c r="V2">
+        <v>16.648</v>
+      </c>
+      <c r="W2">
+        <v>11.937</v>
+      </c>
+      <c r="X2">
+        <v>24.499</v>
+      </c>
+      <c r="Y2">
+        <v>19.626</v>
+      </c>
+      <c r="Z2">
+        <v>19.309</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -838,2319 +758,6239 @@
         <v>-120</v>
       </c>
       <c r="B5">
-        <v>-2.2646E-09</v>
+        <v>-2.5975E-11</v>
       </c>
       <c r="C5">
-        <v>-7.0538E-10</v>
+        <v>-1.3078E-11</v>
       </c>
       <c r="D5">
-        <v>-8.7715E-10</v>
+        <v>3.1615E-11</v>
       </c>
       <c r="E5">
-        <v>-2.1596E-09</v>
+        <v>7.5417E-12</v>
       </c>
       <c r="F5">
-        <v>-3.3081E-10</v>
+        <v>-7.593799999999999E-12</v>
       </c>
       <c r="G5">
-        <v>-1.2323E-09</v>
+        <v>1.375E-11</v>
       </c>
       <c r="H5">
-        <v>-4.8731E-09</v>
+        <v>1.5073E-11</v>
       </c>
       <c r="I5">
-        <v>-6.2628E-10</v>
+        <v>-1.4448E-11</v>
       </c>
       <c r="J5">
-        <v>-1.2706E-09</v>
+        <v>2.9792E-11</v>
       </c>
       <c r="K5">
-        <v>-3.1769E-09</v>
+        <v>4.324E-11</v>
       </c>
       <c r="L5">
-        <v>-1.3804E-09</v>
+        <v>3.2771E-11</v>
       </c>
       <c r="M5">
-        <v>-2.816E-09</v>
+        <v>-3.8021E-11</v>
       </c>
       <c r="N5">
-        <v>-1.6114E-09</v>
+        <v>-1.6198E-11</v>
       </c>
       <c r="O5">
-        <v>-7.4229E-10</v>
+        <v>2.3896E-11</v>
       </c>
       <c r="P5">
-        <v>-2.5891E-10</v>
+        <v>-2.2083E-12</v>
       </c>
       <c r="Q5">
-        <v>-3.8897E-10</v>
+        <v>5.9208E-11</v>
       </c>
       <c r="R5">
-        <v>-1.0187E-09</v>
+        <v>-8.9167E-12</v>
       </c>
       <c r="S5">
-        <v>-1.313E-09</v>
+        <v>-5.7188E-12</v>
       </c>
       <c r="T5">
-        <v>-1.5917E-09</v>
+        <v>2.9969E-11</v>
       </c>
       <c r="U5">
-        <v>-1.5584E-09</v>
+        <v>2.1323E-11</v>
       </c>
       <c r="V5">
-        <v>-1.191E-09</v>
+        <v>-9.25E-12</v>
       </c>
       <c r="W5">
-        <v>-7.5998E-10</v>
+        <v>-3.901E-11</v>
       </c>
       <c r="X5">
-        <v>-7.3663E-09</v>
+        <v>-1.5583E-11</v>
       </c>
       <c r="Y5">
-        <v>-1.2158E-09</v>
+        <v>5.5896E-11</v>
       </c>
       <c r="Z5">
-        <v>-3.4389E-09</v>
+        <v>9.0625E-13</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="B6">
-        <v>-2.521E-09</v>
+        <v>-2.2312E-11</v>
       </c>
       <c r="C6">
-        <v>-7.594E-10</v>
+        <v>6.7322E-11</v>
       </c>
       <c r="D6">
-        <v>-1.0677E-09</v>
+        <v>2.3333E-12</v>
       </c>
       <c r="E6">
-        <v>-2.4227E-09</v>
+        <v>-2.2438E-11</v>
       </c>
       <c r="F6">
-        <v>-5.1716E-10</v>
+        <v>-1.2406E-11</v>
       </c>
       <c r="G6">
-        <v>-1.2908E-09</v>
+        <v>-2.6875E-12</v>
       </c>
       <c r="H6">
-        <v>-5.6196E-09</v>
+        <v>2.425E-11</v>
       </c>
       <c r="I6">
-        <v>-7.1948E-10</v>
+        <v>1.2396E-11</v>
       </c>
       <c r="J6">
-        <v>-1.4365E-09</v>
+        <v>-1.799E-11</v>
       </c>
       <c r="K6">
-        <v>-3.2338E-09</v>
+        <v>-9.270799999999999E-13</v>
       </c>
       <c r="L6">
-        <v>-1.4952E-09</v>
+        <v>-1.0615E-11</v>
       </c>
       <c r="M6">
-        <v>-2.9393E-09</v>
+        <v>1.4365E-11</v>
       </c>
       <c r="N6">
-        <v>-1.6539E-09</v>
+        <v>3.6281E-11</v>
       </c>
       <c r="O6">
-        <v>-8.6605E-10</v>
+        <v>-1.7667E-11</v>
       </c>
       <c r="P6">
-        <v>-3.6514E-10</v>
+        <v>4.126E-11</v>
       </c>
       <c r="Q6">
-        <v>-4.5694E-10</v>
+        <v>-1.5188E-11</v>
       </c>
       <c r="R6">
-        <v>-1.1707E-09</v>
+        <v>5.5823E-11</v>
       </c>
       <c r="S6">
-        <v>-1.4672E-09</v>
+        <v>3.9198E-11</v>
       </c>
       <c r="T6">
-        <v>-1.7049E-09</v>
+        <v>-7.0835E-13</v>
       </c>
       <c r="U6">
-        <v>-1.6817E-09</v>
+        <v>-2.8542E-12</v>
       </c>
       <c r="V6">
-        <v>-1.3014E-09</v>
+        <v>4.076E-11</v>
       </c>
       <c r="W6">
-        <v>-7.4224E-10</v>
+        <v>-2.024E-11</v>
       </c>
       <c r="X6">
-        <v>-7.4867E-09</v>
+        <v>9.2396E-12</v>
       </c>
       <c r="Y6">
-        <v>-1.2624E-09</v>
+        <v>3.8948E-11</v>
       </c>
       <c r="Z6">
-        <v>-3.6347E-09</v>
+        <v>3.4677E-11</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="B7">
-        <v>-2.7565E-09</v>
+        <v>-6.2422E-12</v>
       </c>
       <c r="C7">
-        <v>-8.5492E-10</v>
+        <v>1.4909E-11</v>
       </c>
       <c r="D7">
-        <v>-1.182E-09</v>
+        <v>2.7292E-12</v>
       </c>
       <c r="E7">
-        <v>-2.6562E-09</v>
+        <v>4.7917E-12</v>
       </c>
       <c r="F7">
-        <v>-4.9753E-10</v>
+        <v>6.3146E-11</v>
       </c>
       <c r="G7">
-        <v>-1.4654E-09</v>
+        <v>-4.7813E-11</v>
       </c>
       <c r="H7">
-        <v>-5.8343E-09</v>
+        <v>-4.2135E-11</v>
       </c>
       <c r="I7">
-        <v>-7.2129E-10</v>
+        <v>2.6E-11</v>
       </c>
       <c r="J7">
-        <v>-1.4292E-09</v>
+        <v>-5.6031E-11</v>
       </c>
       <c r="K7">
-        <v>-3.2401E-09</v>
+        <v>-6.8562E-11</v>
       </c>
       <c r="L7">
-        <v>-1.6852E-09</v>
+        <v>-4.7521E-11</v>
       </c>
       <c r="M7">
-        <v>-3.0677E-09</v>
+        <v>-1.5198E-11</v>
       </c>
       <c r="N7">
-        <v>-1.7002E-09</v>
+        <v>-3.2625E-11</v>
       </c>
       <c r="O7">
-        <v>-9.761699999999999E-10</v>
+        <v>-4.3354E-11</v>
       </c>
       <c r="P7">
-        <v>-3.0661E-10</v>
+        <v>3.6188E-11</v>
       </c>
       <c r="Q7">
-        <v>-4.5608E-10</v>
+        <v>1.1844E-11</v>
       </c>
       <c r="R7">
-        <v>-1.3688E-09</v>
+        <v>6.3437E-12</v>
       </c>
       <c r="S7">
-        <v>-1.6035E-09</v>
+        <v>4.7073E-11</v>
       </c>
       <c r="T7">
-        <v>-2.0064E-09</v>
+        <v>-2.2104E-11</v>
       </c>
       <c r="U7">
-        <v>-1.7314E-09</v>
+        <v>-2.7802E-11</v>
       </c>
       <c r="V7">
-        <v>-1.4006E-09</v>
+        <v>7.739600000000001E-12</v>
       </c>
       <c r="W7">
-        <v>-7.4505E-10</v>
+        <v>4.5E-12</v>
       </c>
       <c r="X7">
-        <v>-8.1161E-09</v>
+        <v>-1.4927E-11</v>
       </c>
       <c r="Y7">
-        <v>-1.372E-09</v>
+        <v>4.125E-12</v>
       </c>
       <c r="Z7">
-        <v>-4.0468E-09</v>
+        <v>-4.2563E-11</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
-        <v>-90</v>
+        <v>-105</v>
       </c>
       <c r="B8">
-        <v>-3.0239E-09</v>
+        <v>-3.9955E-11</v>
       </c>
       <c r="C8">
-        <v>-9.0763E-10</v>
+        <v>-3.5854E-12</v>
       </c>
       <c r="D8">
-        <v>-1.3439E-09</v>
+        <v>2.5552E-11</v>
       </c>
       <c r="E8">
-        <v>-2.848E-09</v>
+        <v>-9.5656E-11</v>
       </c>
       <c r="F8">
-        <v>-4.3346E-10</v>
+        <v>6.9479E-12</v>
       </c>
       <c r="G8">
-        <v>-1.556E-09</v>
+        <v>-4.3229E-11</v>
       </c>
       <c r="H8">
-        <v>-6.1536E-09</v>
+        <v>-1.4525E-10</v>
       </c>
       <c r="I8">
-        <v>-7.4176E-10</v>
+        <v>3.7208E-11</v>
       </c>
       <c r="J8">
-        <v>-1.5756E-09</v>
+        <v>-2.7969E-11</v>
       </c>
       <c r="K8">
-        <v>-3.5865E-09</v>
+        <v>-9.696899999999999E-11</v>
       </c>
       <c r="L8">
-        <v>-1.8196E-09</v>
+        <v>-8.4594E-11</v>
       </c>
       <c r="M8">
-        <v>-3.4474E-09</v>
+        <v>-2.8938E-11</v>
       </c>
       <c r="N8">
-        <v>-1.939E-09</v>
+        <v>-4.3229E-11</v>
       </c>
       <c r="O8">
-        <v>-1.1256E-09</v>
+        <v>-4.3969E-11</v>
       </c>
       <c r="P8">
-        <v>-4.3569E-10</v>
+        <v>-3.9708E-11</v>
       </c>
       <c r="Q8">
-        <v>-5.159E-10</v>
+        <v>3.6031E-11</v>
       </c>
       <c r="R8">
-        <v>-1.4389E-09</v>
+        <v>-2.201E-11</v>
       </c>
       <c r="S8">
-        <v>-1.6681E-09</v>
+        <v>-2.5542E-11</v>
       </c>
       <c r="T8">
-        <v>-2.0934E-09</v>
+        <v>-7.5667E-11</v>
       </c>
       <c r="U8">
-        <v>-1.8587E-09</v>
+        <v>-1.1195E-10</v>
       </c>
       <c r="V8">
-        <v>-1.5466E-09</v>
+        <v>1.9896E-11</v>
       </c>
       <c r="W8">
-        <v>-7.0546E-10</v>
+        <v>4.9792E-12</v>
       </c>
       <c r="X8">
-        <v>-8.477400000000001E-09</v>
+        <v>-6.024E-11</v>
       </c>
       <c r="Y8">
-        <v>-1.5861E-09</v>
+        <v>-2.1458E-11</v>
       </c>
       <c r="Z8">
-        <v>-4.3114E-09</v>
+        <v>-4.9375E-11</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="B9">
-        <v>-3.9473E-09</v>
+        <v>1.8314E-11</v>
       </c>
       <c r="C9">
-        <v>-1.1502E-09</v>
+        <v>3.8459E-11</v>
       </c>
       <c r="D9">
-        <v>-1.6129E-09</v>
+        <v>-5.774E-11</v>
       </c>
       <c r="E9">
-        <v>-3.1431E-09</v>
+        <v>-1.6018E-10</v>
       </c>
       <c r="F9">
-        <v>-4.7069E-10</v>
+        <v>-1.7833E-11</v>
       </c>
       <c r="G9">
-        <v>-1.8006E-09</v>
+        <v>-5.7781E-11</v>
       </c>
       <c r="H9">
-        <v>-6.8233E-09</v>
+        <v>-3.0201E-09</v>
       </c>
       <c r="I9">
-        <v>-8.2099E-10</v>
+        <v>-1.5271E-11</v>
       </c>
       <c r="J9">
-        <v>-1.7416E-09</v>
+        <v>-8.992699999999999E-11</v>
       </c>
       <c r="K9">
-        <v>-3.9083E-09</v>
+        <v>-2.4067E-10</v>
       </c>
       <c r="L9">
-        <v>-1.7807E-09</v>
+        <v>-3.1956E-10</v>
       </c>
       <c r="M9">
-        <v>-4.03E-09</v>
+        <v>-5.3031E-11</v>
       </c>
       <c r="N9">
-        <v>-2.0775E-09</v>
+        <v>-1.6487E-10</v>
       </c>
       <c r="O9">
-        <v>-1.2752E-09</v>
+        <v>-6.0698E-11</v>
       </c>
       <c r="P9">
-        <v>-4.885E-10</v>
+        <v>1.7625E-11</v>
       </c>
       <c r="Q9">
-        <v>-5.663E-10</v>
+        <v>4.4594E-11</v>
       </c>
       <c r="R9">
-        <v>-1.6248E-09</v>
+        <v>-7.411499999999999E-11</v>
       </c>
       <c r="S9">
-        <v>-2.0096E-09</v>
+        <v>-3.649E-11</v>
       </c>
       <c r="T9">
-        <v>-2.2413E-09</v>
+        <v>-1.9152E-10</v>
       </c>
       <c r="U9">
-        <v>-2.1341E-09</v>
+        <v>-1.8332E-10</v>
       </c>
       <c r="V9">
-        <v>-1.6395E-09</v>
+        <v>-7.0427E-11</v>
       </c>
       <c r="W9">
-        <v>-7.7616E-10</v>
+        <v>-4.7281E-11</v>
       </c>
       <c r="X9">
-        <v>-8.741100000000001E-09</v>
+        <v>-1.2686E-10</v>
       </c>
       <c r="Y9">
-        <v>-1.8129E-09</v>
+        <v>-7.0531E-11</v>
       </c>
       <c r="Z9">
-        <v>-4.5938E-09</v>
+        <v>-1.1098E-10</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
-        <v>-70</v>
+        <v>-95</v>
       </c>
       <c r="B10">
-        <v>-5.0935E-09</v>
+        <v>-7.0598E-11</v>
       </c>
       <c r="C10">
-        <v>-1.5929E-09</v>
+        <v>-1.0421E-11</v>
       </c>
       <c r="D10">
-        <v>-2.0993E-09</v>
+        <v>-5.4594E-11</v>
       </c>
       <c r="E10">
-        <v>-2.9085E-09</v>
+        <v>-3.6647E-10</v>
       </c>
       <c r="F10">
-        <v>-3.9731E-10</v>
+        <v>-6.5104E-11</v>
       </c>
       <c r="G10">
-        <v>-2.0393E-09</v>
+        <v>-1.4843E-10</v>
       </c>
       <c r="H10">
-        <v>-8.119299999999999E-09</v>
+        <v>-2.9076E-09</v>
       </c>
       <c r="I10">
-        <v>-7.229E-10</v>
+        <v>-2.2844E-11</v>
       </c>
       <c r="J10">
-        <v>-1.9683E-09</v>
+        <v>-2.0845E-10</v>
       </c>
       <c r="K10">
-        <v>-4.1947E-09</v>
+        <v>-4.2443E-10</v>
       </c>
       <c r="L10">
-        <v>-1.6593E-09</v>
+        <v>-3.6398E-10</v>
       </c>
       <c r="M10">
-        <v>-4.8252E-09</v>
+        <v>-8.3635E-11</v>
       </c>
       <c r="N10">
-        <v>-2.2019E-09</v>
+        <v>-3.1095E-10</v>
       </c>
       <c r="O10">
-        <v>-1.5655E-09</v>
+        <v>-1.2473E-10</v>
       </c>
       <c r="P10">
-        <v>-4.8236E-10</v>
+        <v>-4.0625E-12</v>
       </c>
       <c r="Q10">
-        <v>-6.3995E-10</v>
+        <v>-1.5844E-11</v>
       </c>
       <c r="R10">
-        <v>-1.7368E-09</v>
+        <v>-4.4542E-11</v>
       </c>
       <c r="S10">
-        <v>-2.1516E-09</v>
+        <v>-8.969799999999999E-11</v>
       </c>
       <c r="T10">
-        <v>-2.1012E-09</v>
+        <v>-3.4884E-10</v>
       </c>
       <c r="U10">
-        <v>-2.2042E-09</v>
+        <v>-2.8224E-10</v>
       </c>
       <c r="V10">
-        <v>-1.6664E-09</v>
+        <v>-1.8052E-10</v>
       </c>
       <c r="W10">
-        <v>-6.8443E-10</v>
+        <v>-8.2583E-11</v>
       </c>
       <c r="X10">
-        <v>-8.401899999999999E-09</v>
+        <v>-2.485E-10</v>
       </c>
       <c r="Y10">
-        <v>-2.1154E-09</v>
+        <v>-1.161E-10</v>
       </c>
       <c r="Z10">
-        <v>-4.6597E-09</v>
+        <v>-2.8179E-10</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11">
-        <v>-60</v>
+        <v>-90</v>
       </c>
       <c r="B11">
-        <v>-6.637E-09</v>
+        <v>-1.088E-10</v>
       </c>
       <c r="C11">
-        <v>-2.0577E-09</v>
+        <v>2.2183E-12</v>
       </c>
       <c r="D11">
-        <v>-3.1511E-09</v>
+        <v>-1.4668E-10</v>
       </c>
       <c r="E11">
-        <v>-2.1026E-09</v>
+        <v>-6.9486E-10</v>
       </c>
       <c r="F11">
-        <v>3.2313E-11</v>
+        <v>-2.2788E-10</v>
       </c>
       <c r="G11">
-        <v>-2.4004E-09</v>
+        <v>-2.496E-10</v>
       </c>
       <c r="H11">
-        <v>-9.314599999999999E-09</v>
+        <v>-2.9226E-09</v>
       </c>
       <c r="I11">
-        <v>-5.0415E-10</v>
+        <v>-1.2123E-10</v>
       </c>
       <c r="J11">
-        <v>-2.0031E-09</v>
+        <v>-2.35E-10</v>
       </c>
       <c r="K11">
-        <v>-3.4876E-09</v>
+        <v>-6.4427E-10</v>
       </c>
       <c r="L11">
-        <v>-1.2909E-09</v>
+        <v>-6.239E-10</v>
       </c>
       <c r="M11">
-        <v>-6.2404E-09</v>
+        <v>-1.2868E-10</v>
       </c>
       <c r="N11">
-        <v>-2.59E-09</v>
+        <v>-5.498899999999999E-10</v>
       </c>
       <c r="O11">
-        <v>-1.6736E-09</v>
+        <v>-2.467E-10</v>
       </c>
       <c r="P11">
-        <v>-5.2315E-10</v>
+        <v>1.3958E-12</v>
       </c>
       <c r="Q11">
-        <v>-7.8324E-10</v>
+        <v>-4.2135E-11</v>
       </c>
       <c r="R11">
-        <v>-1.3273E-09</v>
+        <v>-1.7016E-10</v>
       </c>
       <c r="S11">
-        <v>-1.9592E-09</v>
+        <v>-1.9893E-10</v>
       </c>
       <c r="T11">
-        <v>-1.4611E-09</v>
+        <v>-7.0935E-10</v>
       </c>
       <c r="U11">
-        <v>-1.7464E-09</v>
+        <v>-4.6121E-10</v>
       </c>
       <c r="V11">
-        <v>-1.3343E-09</v>
+        <v>-1.5195E-10</v>
       </c>
       <c r="W11">
-        <v>-4.6005E-10</v>
+        <v>-1.1934E-10</v>
       </c>
       <c r="X11">
-        <v>-6.8693E-09</v>
+        <v>-8.0057E-10</v>
       </c>
       <c r="Y11">
-        <v>-1.8791E-09</v>
+        <v>-1.635E-10</v>
       </c>
       <c r="Z11">
-        <v>-3.5732E-09</v>
+        <v>-4.9671E-10</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12">
-        <v>-50</v>
+        <v>-85</v>
       </c>
       <c r="B12">
-        <v>-6.9507E-09</v>
+        <v>-2.1551E-10</v>
       </c>
       <c r="C12">
-        <v>-2.0092E-09</v>
+        <v>-9.6289E-11</v>
       </c>
       <c r="D12">
-        <v>-3.824E-09</v>
+        <v>-2.1514E-10</v>
       </c>
       <c r="E12">
-        <v>-5.6791E-10</v>
+        <v>-1.8033E-09</v>
       </c>
       <c r="F12">
-        <v>3.1196E-10</v>
+        <v>-4.2976E-10</v>
       </c>
       <c r="G12">
-        <v>-3.1407E-09</v>
+        <v>-4.8706E-10</v>
       </c>
       <c r="H12">
-        <v>-5.4018E-09</v>
+        <v>-3.0763E-09</v>
       </c>
       <c r="I12">
-        <v>-1.0095E-10</v>
+        <v>-1.6821E-10</v>
       </c>
       <c r="J12">
-        <v>-9.298500000000001E-10</v>
+        <v>-3.5679E-10</v>
       </c>
       <c r="K12">
-        <v>-1.0249E-09</v>
+        <v>-9.31E-10</v>
       </c>
       <c r="L12">
-        <v>-6.1086E-10</v>
+        <v>-7.4752E-10</v>
       </c>
       <c r="M12">
-        <v>-5.958E-09</v>
+        <v>-3.1068E-10</v>
       </c>
       <c r="N12">
-        <v>-2.6937E-09</v>
+        <v>-5.9349E-10</v>
       </c>
       <c r="O12">
-        <v>-1.3927E-09</v>
+        <v>-4.0662E-10</v>
       </c>
       <c r="P12">
-        <v>-1.2433E-10</v>
+        <v>-8.450000000000001E-11</v>
       </c>
       <c r="Q12">
-        <v>-7.8179E-10</v>
+        <v>-3.5865E-11</v>
       </c>
       <c r="R12">
-        <v>-3.7312E-10</v>
+        <v>-2.9624E-10</v>
       </c>
       <c r="S12">
-        <v>-1.206E-09</v>
+        <v>-3.6033E-10</v>
       </c>
       <c r="T12">
-        <v>-1.794E-10</v>
+        <v>-1.2444E-09</v>
       </c>
       <c r="U12">
-        <v>-3.5936E-10</v>
+        <v>-7.9527E-10</v>
       </c>
       <c r="V12">
-        <v>-6.117099999999999E-10</v>
+        <v>-3.101E-10</v>
       </c>
       <c r="W12">
-        <v>7.2412E-11</v>
+        <v>-1.9816E-10</v>
       </c>
       <c r="X12">
-        <v>-3.9284E-09</v>
+        <v>-1.7076E-09</v>
       </c>
       <c r="Y12">
-        <v>-5.121E-10</v>
+        <v>-4.4304E-10</v>
       </c>
       <c r="Z12">
-        <v>-9.603500000000001E-10</v>
+        <v>-1.0285E-09</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="B13">
-        <v>-4.343E-09</v>
+        <v>-4.7755E-10</v>
       </c>
       <c r="C13">
-        <v>-7.3383E-10</v>
+        <v>-8.367599999999999E-11</v>
       </c>
       <c r="D13">
-        <v>-1.4343E-09</v>
+        <v>-3.9398E-10</v>
       </c>
       <c r="E13">
-        <v>1.3575E-11</v>
+        <v>-2.5319E-09</v>
       </c>
       <c r="F13">
-        <v>3.6019E-10</v>
+        <v>-7.559E-10</v>
       </c>
       <c r="G13">
-        <v>-3.6383E-09</v>
+        <v>-7.0431E-10</v>
       </c>
       <c r="H13">
-        <v>-1.7186E-09</v>
+        <v>-3.3093E-09</v>
       </c>
       <c r="I13">
-        <v>6.642500000000001E-11</v>
+        <v>-3.4093E-10</v>
       </c>
       <c r="J13">
-        <v>-1.3121E-10</v>
+        <v>-5.3563E-10</v>
       </c>
       <c r="K13">
-        <v>3.3575E-11</v>
+        <v>-1.2315E-09</v>
       </c>
       <c r="L13">
-        <v>5.4475E-11</v>
+        <v>-9.248600000000001E-10</v>
       </c>
       <c r="M13">
-        <v>-2.3062E-09</v>
+        <v>-4.9591E-10</v>
       </c>
       <c r="N13">
-        <v>-2.1771E-09</v>
+        <v>-6.5221E-10</v>
       </c>
       <c r="O13">
-        <v>-5.1619E-10</v>
+        <v>-5.8712E-10</v>
       </c>
       <c r="P13">
-        <v>1.1463E-10</v>
+        <v>-1.9477E-10</v>
       </c>
       <c r="Q13">
-        <v>-3.4701E-10</v>
+        <v>-1.2E-11</v>
       </c>
       <c r="R13">
-        <v>3.5587E-11</v>
+        <v>-5.8391E-10</v>
       </c>
       <c r="S13">
-        <v>-1.9674E-10</v>
+        <v>-6.5235E-10</v>
       </c>
       <c r="T13">
-        <v>2.9538E-10</v>
+        <v>-2.0927E-09</v>
       </c>
       <c r="U13">
-        <v>9.082499999999999E-11</v>
+        <v>-1.2247E-09</v>
       </c>
       <c r="V13">
-        <v>-7.593799999999999E-11</v>
+        <v>-4.2982E-10</v>
       </c>
       <c r="W13">
-        <v>3.0446E-10</v>
+        <v>-2.9482E-10</v>
       </c>
       <c r="X13">
-        <v>-6.3951E-10</v>
+        <v>-3.0128E-09</v>
       </c>
       <c r="Y13">
-        <v>1.6005E-10</v>
+        <v>-8.1346E-10</v>
       </c>
       <c r="Z13">
-        <v>5.3275E-11</v>
+        <v>-1.8407E-09</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14">
-        <v>-30</v>
+        <v>-75</v>
       </c>
       <c r="B14">
-        <v>-5.6836E-10</v>
+        <v>-9.176E-10</v>
       </c>
       <c r="C14">
-        <v>-4.0672E-11</v>
+        <v>-2.3738E-10</v>
       </c>
       <c r="D14">
-        <v>-1.2968E-10</v>
+        <v>-6.5143E-10</v>
       </c>
       <c r="E14">
-        <v>8.1137E-11</v>
+        <v>-3.7539E-09</v>
       </c>
       <c r="F14">
-        <v>4.957E-10</v>
+        <v>-1.2779E-09</v>
       </c>
       <c r="G14">
-        <v>-2.3044E-09</v>
+        <v>-9.1495E-10</v>
       </c>
       <c r="H14">
-        <v>-3.2424E-10</v>
+        <v>-3.9044E-09</v>
       </c>
       <c r="I14">
-        <v>8.6362E-11</v>
+        <v>-5.8561E-10</v>
       </c>
       <c r="J14">
-        <v>5.0987E-11</v>
+        <v>-8.0395E-10</v>
       </c>
       <c r="K14">
-        <v>2.3951E-10</v>
+        <v>-1.8916E-09</v>
       </c>
       <c r="L14">
-        <v>2.1649E-10</v>
+        <v>-1.1305E-09</v>
       </c>
       <c r="M14">
-        <v>-3.9908E-10</v>
+        <v>-6.5154E-10</v>
       </c>
       <c r="N14">
-        <v>-1.224E-09</v>
+        <v>-7.8041E-10</v>
       </c>
       <c r="O14">
-        <v>5.79E-11</v>
+        <v>-9.225700000000001E-10</v>
       </c>
       <c r="P14">
-        <v>3.5397E-10</v>
+        <v>-2.2783E-10</v>
       </c>
       <c r="Q14">
-        <v>-1.7075E-11</v>
+        <v>-5.0708E-11</v>
       </c>
       <c r="R14">
-        <v>4.9213E-11</v>
+        <v>-9.783E-10</v>
       </c>
       <c r="S14">
-        <v>9.4562E-11</v>
+        <v>-1.0239E-09</v>
       </c>
       <c r="T14">
-        <v>3.1501E-10</v>
+        <v>-3.0128E-09</v>
       </c>
       <c r="U14">
-        <v>1.648E-10</v>
+        <v>-1.7675E-09</v>
       </c>
       <c r="V14">
-        <v>6.1925E-11</v>
+        <v>-6.9549E-10</v>
       </c>
       <c r="W14">
-        <v>4.209E-10</v>
+        <v>-4.4118E-10</v>
       </c>
       <c r="X14">
-        <v>-3.035E-11</v>
+        <v>-4.1225E-09</v>
       </c>
       <c r="Y14">
-        <v>2.3106E-10</v>
+        <v>-1.4074E-09</v>
       </c>
       <c r="Z14">
-        <v>2.5193E-10</v>
+        <v>-3.0486E-09</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15">
-        <v>-20</v>
+        <v>-70</v>
       </c>
       <c r="B15">
-        <v>1.1233E-10</v>
+        <v>-1.668E-09</v>
       </c>
       <c r="C15">
-        <v>1.4743E-10</v>
+        <v>-4.5581E-10</v>
       </c>
       <c r="D15">
-        <v>-1.5275E-11</v>
+        <v>-9.669300000000001E-10</v>
       </c>
       <c r="E15">
-        <v>1.1448E-10</v>
+        <v>-5.2278E-09</v>
       </c>
       <c r="F15">
-        <v>5.3275E-10</v>
+        <v>-1.7914E-09</v>
       </c>
       <c r="G15">
-        <v>-8.7292E-10</v>
+        <v>-1.1742E-09</v>
       </c>
       <c r="H15">
-        <v>9.200000000000001E-11</v>
+        <v>-5.1372E-09</v>
       </c>
       <c r="I15">
-        <v>9.3E-11</v>
+        <v>-8.8754E-10</v>
       </c>
       <c r="J15">
-        <v>9.33E-11</v>
+        <v>-1.1726E-09</v>
       </c>
       <c r="K15">
-        <v>1.7553E-10</v>
+        <v>-2.784E-09</v>
       </c>
       <c r="L15">
-        <v>2.0295E-10</v>
+        <v>-1.346E-09</v>
       </c>
       <c r="M15">
-        <v>-6.1112E-11</v>
+        <v>-1.0039E-09</v>
       </c>
       <c r="N15">
-        <v>-5.7391E-10</v>
+        <v>-8.9307E-10</v>
       </c>
       <c r="O15">
-        <v>9.8187E-11</v>
+        <v>-1.4481E-09</v>
       </c>
       <c r="P15">
-        <v>4.2315E-10</v>
+        <v>-3.1552E-10</v>
       </c>
       <c r="Q15">
-        <v>-7.450000000000001E-12</v>
+        <v>-8.1854E-11</v>
       </c>
       <c r="R15">
-        <v>1.151E-10</v>
+        <v>-1.5457E-09</v>
       </c>
       <c r="S15">
-        <v>1.1429E-10</v>
+        <v>-1.6513E-09</v>
       </c>
       <c r="T15">
-        <v>3.844E-10</v>
+        <v>-4.075E-09</v>
       </c>
       <c r="U15">
-        <v>1.9265E-10</v>
+        <v>-2.6936E-09</v>
       </c>
       <c r="V15">
-        <v>8.875E-11</v>
+        <v>-9.679699999999999E-10</v>
       </c>
       <c r="W15">
-        <v>4.6392E-10</v>
+        <v>-7.1307E-10</v>
       </c>
       <c r="X15">
-        <v>-2.545E-11</v>
+        <v>-5.5889E-09</v>
       </c>
       <c r="Y15">
-        <v>2.4299E-10</v>
+        <v>-2.3322E-09</v>
       </c>
       <c r="Z15">
-        <v>2.2971E-10</v>
+        <v>-4.7332E-09</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16">
-        <v>-10</v>
+        <v>-65</v>
       </c>
       <c r="B16">
-        <v>3.1077E-10</v>
+        <v>-2.9454E-09</v>
       </c>
       <c r="C16">
-        <v>1.2205E-10</v>
+        <v>-8.2291E-10</v>
       </c>
       <c r="D16">
-        <v>1.4712E-11</v>
+        <v>-1.386E-09</v>
       </c>
       <c r="E16">
-        <v>1.2795E-10</v>
+        <v>-6.3273E-09</v>
       </c>
       <c r="F16">
-        <v>6.1334E-10</v>
+        <v>-2.1604E-09</v>
       </c>
       <c r="G16">
-        <v>-5.5493E-10</v>
+        <v>-1.4533E-09</v>
       </c>
       <c r="H16">
-        <v>3.2328E-10</v>
+        <v>-7.42E-09</v>
       </c>
       <c r="I16">
-        <v>1.6099E-10</v>
+        <v>-1.1985E-09</v>
       </c>
       <c r="J16">
-        <v>8.4412E-11</v>
+        <v>-1.8234E-09</v>
       </c>
       <c r="K16">
-        <v>2.9565E-10</v>
+        <v>-3.9454E-09</v>
       </c>
       <c r="L16">
-        <v>2.2996E-10</v>
+        <v>-1.727E-09</v>
       </c>
       <c r="M16">
-        <v>-1.4279E-10</v>
+        <v>-1.8367E-09</v>
       </c>
       <c r="N16">
-        <v>-3.8852E-10</v>
+        <v>-1.1839E-09</v>
       </c>
       <c r="O16">
-        <v>1.4455E-10</v>
+        <v>-2.1335E-09</v>
       </c>
       <c r="P16">
-        <v>4.1419E-10</v>
+        <v>-6.0884E-10</v>
       </c>
       <c r="Q16">
-        <v>-1.1938E-11</v>
+        <v>-1.8532E-10</v>
       </c>
       <c r="R16">
-        <v>1.2701E-10</v>
+        <v>-2.1932E-09</v>
       </c>
       <c r="S16">
-        <v>2.0426E-10</v>
+        <v>-2.4025E-09</v>
       </c>
       <c r="T16">
-        <v>4.4859E-10</v>
+        <v>-4.9005E-09</v>
       </c>
       <c r="U16">
-        <v>2.7875E-10</v>
+        <v>-3.6498E-09</v>
       </c>
       <c r="V16">
-        <v>9.2813E-11</v>
+        <v>-1.3937E-09</v>
       </c>
       <c r="W16">
-        <v>5.244E-10</v>
+        <v>-1.0043E-09</v>
       </c>
       <c r="X16">
-        <v>9.857500000000001E-11</v>
+        <v>-7.4233E-09</v>
       </c>
       <c r="Y16">
-        <v>2.2063E-10</v>
+        <v>-3.5016E-09</v>
       </c>
       <c r="Z16">
-        <v>2.4012E-10</v>
+        <v>-6.5335E-09</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="B17">
-        <v>2.2422E-10</v>
+        <v>-4.5568E-09</v>
       </c>
       <c r="C17">
-        <v>1.6959E-10</v>
+        <v>-1.3027E-09</v>
       </c>
       <c r="D17">
-        <v>2.4E-11</v>
+        <v>-2.1129E-09</v>
       </c>
       <c r="E17">
-        <v>2.0273E-10</v>
+        <v>-6.9243E-09</v>
       </c>
       <c r="F17">
-        <v>6.0524E-10</v>
+        <v>-2.2195E-09</v>
       </c>
       <c r="G17">
-        <v>-3.2034E-10</v>
+        <v>-1.6837E-09</v>
       </c>
       <c r="H17">
-        <v>2.9998E-10</v>
+        <v>-1.1027E-08</v>
       </c>
       <c r="I17">
-        <v>1.047E-10</v>
+        <v>-1.4476E-09</v>
       </c>
       <c r="J17">
-        <v>1.404E-10</v>
+        <v>-2.3707E-09</v>
       </c>
       <c r="K17">
-        <v>1.2695E-10</v>
+        <v>-4.9776E-09</v>
       </c>
       <c r="L17">
-        <v>3.0751E-10</v>
+        <v>-1.9162E-09</v>
       </c>
       <c r="M17">
-        <v>-6.950000000000001E-11</v>
+        <v>-2.6086E-09</v>
       </c>
       <c r="N17">
-        <v>-2.813E-10</v>
+        <v>-1.5627E-09</v>
       </c>
       <c r="O17">
-        <v>8.5787E-11</v>
+        <v>-2.7831E-09</v>
       </c>
       <c r="P17">
-        <v>4.447E-10</v>
+        <v>-7.5406E-10</v>
       </c>
       <c r="Q17">
-        <v>7.5112E-11</v>
+        <v>-3.2906E-10</v>
       </c>
       <c r="R17">
-        <v>1.3696E-10</v>
+        <v>-2.9378E-09</v>
       </c>
       <c r="S17">
-        <v>1.5371E-10</v>
+        <v>-3.2117E-09</v>
       </c>
       <c r="T17">
-        <v>5.4364E-10</v>
+        <v>-5.4065E-09</v>
       </c>
       <c r="U17">
-        <v>2.1091E-10</v>
+        <v>-4.4774E-09</v>
       </c>
       <c r="V17">
-        <v>8.595E-11</v>
+        <v>-1.8009E-09</v>
       </c>
       <c r="W17">
-        <v>6.8166E-10</v>
+        <v>-1.231E-09</v>
       </c>
       <c r="X17">
-        <v>1.1029E-10</v>
+        <v>-9.1413E-09</v>
       </c>
       <c r="Y17">
-        <v>2.0664E-10</v>
+        <v>-4.794E-09</v>
       </c>
       <c r="Z17">
-        <v>2.5751E-10</v>
+        <v>-8.0512E-09</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18">
-        <v>10</v>
+        <v>-55</v>
       </c>
       <c r="B18">
-        <v>1.7343E-10</v>
+        <v>-6.8297E-09</v>
       </c>
       <c r="C18">
-        <v>2.0494E-10</v>
+        <v>-2.109E-09</v>
       </c>
       <c r="D18">
-        <v>1.9425E-11</v>
+        <v>-3.3742E-09</v>
       </c>
       <c r="E18">
-        <v>1.7515E-10</v>
+        <v>-6.7384E-09</v>
       </c>
       <c r="F18">
-        <v>6.6795E-10</v>
+        <v>-1.7668E-09</v>
       </c>
       <c r="G18">
-        <v>-2.5425E-10</v>
+        <v>-1.9838E-09</v>
       </c>
       <c r="H18">
-        <v>8.4429E-10</v>
+        <v>-1.6467E-08</v>
       </c>
       <c r="I18">
-        <v>1.884E-10</v>
+        <v>-1.5401E-09</v>
       </c>
       <c r="J18">
-        <v>1.8767E-10</v>
+        <v>-2.9727E-09</v>
       </c>
       <c r="K18">
-        <v>2.3562E-10</v>
+        <v>-5.4484E-09</v>
       </c>
       <c r="L18">
-        <v>3.2352E-10</v>
+        <v>-2.0751E-09</v>
       </c>
       <c r="M18">
-        <v>1.375E-12</v>
+        <v>-3.8646E-09</v>
       </c>
       <c r="N18">
-        <v>-2.8971E-10</v>
+        <v>-1.9895E-09</v>
       </c>
       <c r="O18">
-        <v>6.125E-11</v>
+        <v>-3.3449E-09</v>
       </c>
       <c r="P18">
-        <v>5.2415E-10</v>
+        <v>-8.996E-10</v>
       </c>
       <c r="Q18">
-        <v>6.1862E-11</v>
+        <v>-5.4978E-10</v>
       </c>
       <c r="R18">
-        <v>1.2556E-10</v>
+        <v>-3.2898E-09</v>
       </c>
       <c r="S18">
-        <v>1.299E-10</v>
+        <v>-3.7636E-09</v>
       </c>
       <c r="T18">
-        <v>5.1288E-10</v>
+        <v>-5.0699E-09</v>
       </c>
       <c r="U18">
-        <v>2.3015E-10</v>
+        <v>-4.8519E-09</v>
       </c>
       <c r="V18">
-        <v>1.6144E-10</v>
+        <v>-2.1154E-09</v>
       </c>
       <c r="W18">
-        <v>6.2236E-10</v>
+        <v>-1.4055E-09</v>
       </c>
       <c r="X18">
-        <v>3.025E-11</v>
+        <v>-1.0387E-08</v>
       </c>
       <c r="Y18">
-        <v>2.6027E-10</v>
+        <v>-5.5629E-09</v>
       </c>
       <c r="Z18">
-        <v>3.5025E-10</v>
+        <v>-8.9257E-09</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="B19">
-        <v>2.7789E-10</v>
+        <v>-9.0501E-09</v>
       </c>
       <c r="C19">
-        <v>2.1692E-10</v>
+        <v>-2.9902E-09</v>
       </c>
       <c r="D19">
-        <v>-1.435E-11</v>
+        <v>-5.1142E-09</v>
       </c>
       <c r="E19">
-        <v>2.2586E-10</v>
+        <v>-5.5759E-09</v>
       </c>
       <c r="F19">
-        <v>7.9225E-10</v>
+        <v>-1.079E-09</v>
       </c>
       <c r="G19">
-        <v>-4.8025E-10</v>
+        <v>-2.5036E-09</v>
       </c>
       <c r="H19">
-        <v>2.7376E-09</v>
+        <v>-1.2309E-08</v>
       </c>
       <c r="I19">
-        <v>1.7009E-10</v>
+        <v>-1.4008E-09</v>
       </c>
       <c r="J19">
-        <v>1.2671E-10</v>
+        <v>-3.0961E-09</v>
       </c>
       <c r="K19">
-        <v>2.3018E-10</v>
+        <v>-5.2158E-09</v>
       </c>
       <c r="L19">
-        <v>4.2665E-10</v>
+        <v>-2.0412E-09</v>
       </c>
       <c r="M19">
-        <v>-4.0862E-11</v>
+        <v>-5.3155E-09</v>
       </c>
       <c r="N19">
-        <v>-3.0257E-10</v>
+        <v>-2.6031E-09</v>
       </c>
       <c r="O19">
-        <v>1.4969E-10</v>
+        <v>-3.6469E-09</v>
       </c>
       <c r="P19">
-        <v>4.1325E-10</v>
+        <v>-8.9475E-10</v>
       </c>
       <c r="Q19">
-        <v>1.675E-11</v>
+        <v>-7.746E-10</v>
       </c>
       <c r="R19">
-        <v>1.1069E-10</v>
+        <v>-3.2425E-09</v>
       </c>
       <c r="S19">
-        <v>4.515E-11</v>
+        <v>-3.9356E-09</v>
       </c>
       <c r="T19">
-        <v>5.5498E-10</v>
+        <v>-3.797E-09</v>
       </c>
       <c r="U19">
-        <v>3.0889E-10</v>
+        <v>-4.3396E-09</v>
       </c>
       <c r="V19">
-        <v>1.7116E-10</v>
+        <v>-2.2161E-09</v>
       </c>
       <c r="W19">
-        <v>6.9285E-10</v>
+        <v>-1.3358E-09</v>
       </c>
       <c r="X19">
-        <v>7.460000000000001E-11</v>
+        <v>-1.1191E-08</v>
       </c>
       <c r="Y19">
-        <v>2.6436E-10</v>
+        <v>-5.3868E-09</v>
       </c>
       <c r="Z19">
-        <v>3.2266E-10</v>
+        <v>-8.387700000000001E-09</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20">
-        <v>30</v>
+        <v>-45</v>
       </c>
       <c r="B20">
-        <v>3.0817E-10</v>
+        <v>-1.0602E-08</v>
       </c>
       <c r="C20">
-        <v>2.2818E-10</v>
+        <v>-3.5263E-09</v>
       </c>
       <c r="D20">
-        <v>-5.115E-11</v>
+        <v>-6.6846E-09</v>
       </c>
       <c r="E20">
-        <v>1.2901E-10</v>
+        <v>-3.79E-09</v>
       </c>
       <c r="F20">
-        <v>8.7392E-10</v>
+        <v>-4.4111E-10</v>
       </c>
       <c r="G20">
-        <v>-3.6368E-10</v>
+        <v>-3.2453E-09</v>
       </c>
       <c r="H20">
-        <v>2.4324E-09</v>
+        <v>-1.1377E-08</v>
       </c>
       <c r="I20">
-        <v>1.4704E-10</v>
+        <v>-1.0477E-09</v>
       </c>
       <c r="J20">
-        <v>1.8172E-10</v>
+        <v>-2.7818E-09</v>
       </c>
       <c r="K20">
-        <v>2.3462E-10</v>
+        <v>-3.8586E-09</v>
       </c>
       <c r="L20">
-        <v>3.3429E-10</v>
+        <v>-1.7826E-09</v>
       </c>
       <c r="M20">
-        <v>-6.501199999999999E-11</v>
+        <v>-6.7572E-09</v>
       </c>
       <c r="N20">
-        <v>-2.9948E-10</v>
+        <v>-3.1605E-09</v>
       </c>
       <c r="O20">
-        <v>1.0469E-10</v>
+        <v>-3.6019E-09</v>
       </c>
       <c r="P20">
-        <v>4.348E-10</v>
+        <v>-8.2879E-10</v>
       </c>
       <c r="Q20">
-        <v>3.5712E-11</v>
+        <v>-9.3114E-10</v>
       </c>
       <c r="R20">
-        <v>1.7361E-10</v>
+        <v>-2.6579E-09</v>
       </c>
       <c r="S20">
-        <v>2.8238E-11</v>
+        <v>-3.4224E-09</v>
       </c>
       <c r="T20">
-        <v>6.375999999999999E-10</v>
+        <v>-2.2622E-09</v>
       </c>
       <c r="U20">
-        <v>2.9023E-10</v>
+        <v>-3.069E-09</v>
       </c>
       <c r="V20">
-        <v>1.7839E-10</v>
+        <v>-1.9029E-09</v>
       </c>
       <c r="W20">
-        <v>7.4171E-10</v>
+        <v>-1.1352E-09</v>
       </c>
       <c r="X20">
-        <v>-7.9375E-12</v>
+        <v>-1.0598E-08</v>
       </c>
       <c r="Y20">
-        <v>2.5738E-10</v>
+        <v>-4.211E-09</v>
       </c>
       <c r="Z20">
-        <v>2.3525E-10</v>
+        <v>-6.7874E-09</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="B21">
-        <v>-1.2605E-08</v>
+        <v>-1.1132E-08</v>
       </c>
       <c r="C21">
-        <v>-4.5679E-09</v>
+        <v>-3.6876E-09</v>
       </c>
       <c r="D21">
-        <v>-8.4219E-09</v>
+        <v>-7.0055E-09</v>
       </c>
       <c r="E21">
-        <v>-5.6257E-09</v>
+        <v>-2.1392E-09</v>
       </c>
       <c r="F21">
-        <v>-1.4044E-09</v>
+        <v>-5.9396E-11</v>
       </c>
       <c r="G21">
-        <v>-4.9247E-09</v>
+        <v>-4.0123E-09</v>
       </c>
       <c r="H21">
-        <v>-1.5514E-08</v>
+        <v>-9.271399999999999E-09</v>
       </c>
       <c r="I21">
-        <v>-1.5223E-09</v>
+        <v>-5.7797E-10</v>
       </c>
       <c r="J21">
-        <v>-3.5775E-09</v>
+        <v>-2.0687E-09</v>
       </c>
       <c r="K21">
-        <v>-5.715E-09</v>
+        <v>-2.3842E-09</v>
       </c>
       <c r="L21">
-        <v>-2.4486E-09</v>
+        <v>-1.3364E-09</v>
       </c>
       <c r="M21">
-        <v>-9.479E-09</v>
+        <v>-7.623599999999999E-09</v>
       </c>
       <c r="N21">
-        <v>-4.7588E-09</v>
+        <v>-3.5583E-09</v>
       </c>
       <c r="O21">
-        <v>-4.1491E-09</v>
+        <v>-3.0922E-09</v>
       </c>
       <c r="P21">
-        <v>-1.2615E-09</v>
+        <v>-5.8632E-10</v>
       </c>
       <c r="Q21">
-        <v>-1.4381E-09</v>
+        <v>-1.0894E-09</v>
       </c>
       <c r="R21">
-        <v>-3.4921E-09</v>
+        <v>-1.7077E-09</v>
       </c>
       <c r="S21">
-        <v>-4.0167E-09</v>
+        <v>-2.6129E-09</v>
       </c>
       <c r="T21">
-        <v>-3.9223E-09</v>
+        <v>-8.9378E-10</v>
       </c>
       <c r="U21">
-        <v>-4.4428E-09</v>
+        <v>-1.6781E-09</v>
       </c>
       <c r="V21">
-        <v>-2.7557E-09</v>
+        <v>-1.4748E-09</v>
       </c>
       <c r="W21">
-        <v>-1.6641E-09</v>
+        <v>-7.2732E-10</v>
       </c>
       <c r="X21">
-        <v>-1.3121E-08</v>
+        <v>-8.845700000000001E-09</v>
       </c>
       <c r="Y21">
-        <v>-4.9125E-09</v>
+        <v>-2.5295E-09</v>
       </c>
       <c r="Z21">
-        <v>-8.436100000000001E-09</v>
+        <v>-4.1532E-09</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="B22">
-        <v>-1.194E-08</v>
+        <v>-9.606199999999999E-09</v>
       </c>
       <c r="C22">
-        <v>-4.1801E-09</v>
+        <v>-3.1333E-09</v>
       </c>
       <c r="D22">
-        <v>-7.902E-09</v>
+        <v>-5.8154E-09</v>
       </c>
       <c r="E22">
-        <v>-4.7239E-09</v>
+        <v>-8.7642E-10</v>
       </c>
       <c r="F22">
-        <v>-1.0081E-09</v>
+        <v>2.1705E-10</v>
       </c>
       <c r="G22">
-        <v>-5.5079E-09</v>
+        <v>-4.584E-09</v>
       </c>
       <c r="H22">
-        <v>-1.4274E-08</v>
+        <v>-6.4418E-09</v>
       </c>
       <c r="I22">
-        <v>-1.303E-09</v>
+        <v>-2.7375E-10</v>
       </c>
       <c r="J22">
-        <v>-3.0697E-09</v>
+        <v>-1.1992E-09</v>
       </c>
       <c r="K22">
-        <v>-4.8763E-09</v>
+        <v>-9.8982E-10</v>
       </c>
       <c r="L22">
-        <v>-2.2063E-09</v>
+        <v>-8.368E-10</v>
       </c>
       <c r="M22">
-        <v>-9.317999999999999E-09</v>
+        <v>-6.8425E-09</v>
       </c>
       <c r="N22">
-        <v>-4.8879E-09</v>
+        <v>-3.4765E-09</v>
       </c>
       <c r="O22">
-        <v>-3.5588E-09</v>
+        <v>-2.1849E-09</v>
       </c>
       <c r="P22">
-        <v>-1.1011E-09</v>
+        <v>-2.3271E-10</v>
       </c>
       <c r="Q22">
-        <v>-1.4793E-09</v>
+        <v>-9.1092E-10</v>
       </c>
       <c r="R22">
-        <v>-3.0001E-09</v>
+        <v>-7.8062E-10</v>
       </c>
       <c r="S22">
-        <v>-3.4478E-09</v>
+        <v>-1.6006E-09</v>
       </c>
       <c r="T22">
-        <v>-3.0786E-09</v>
+        <v>-7.7521E-11</v>
       </c>
       <c r="U22">
-        <v>-3.7053E-09</v>
+        <v>-6.335500000000001E-10</v>
       </c>
       <c r="V22">
-        <v>-2.5326E-09</v>
+        <v>-8.8866E-10</v>
       </c>
       <c r="W22">
-        <v>-1.4809E-09</v>
+        <v>-3.0779E-10</v>
       </c>
       <c r="X22">
-        <v>-1.175E-08</v>
+        <v>-5.9286E-09</v>
       </c>
       <c r="Y22">
-        <v>-3.8481E-09</v>
+        <v>-1.2039E-09</v>
       </c>
       <c r="Z22">
-        <v>-7.0599E-09</v>
+        <v>-1.7592E-09</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="B23">
-        <v>-1.0463E-08</v>
+        <v>-6.8998E-09</v>
       </c>
       <c r="C23">
-        <v>-3.6608E-09</v>
+        <v>-2.0582E-09</v>
       </c>
       <c r="D23">
-        <v>-6.9837E-09</v>
+        <v>-3.9138E-09</v>
       </c>
       <c r="E23">
-        <v>-3.9273E-09</v>
+        <v>-3.0551E-10</v>
       </c>
       <c r="F23">
-        <v>-7.9586E-10</v>
+        <v>2.7994E-10</v>
       </c>
       <c r="G23">
-        <v>-5.7435E-09</v>
+        <v>-4.7779E-09</v>
       </c>
       <c r="H23">
-        <v>-1.2504E-08</v>
+        <v>-3.7303E-09</v>
       </c>
       <c r="I23">
-        <v>-1.1436E-09</v>
+        <v>-6.9521E-11</v>
       </c>
       <c r="J23">
-        <v>-2.8201E-09</v>
+        <v>-4.4165E-10</v>
       </c>
       <c r="K23">
-        <v>-4.2223E-09</v>
+        <v>-2.4621E-10</v>
       </c>
       <c r="L23">
-        <v>-2.0148E-09</v>
+        <v>-2.6587E-10</v>
       </c>
       <c r="M23">
-        <v>-8.7038E-09</v>
+        <v>-5.0795E-09</v>
       </c>
       <c r="N23">
-        <v>-4.7336E-09</v>
+        <v>-3.1254E-09</v>
       </c>
       <c r="O23">
-        <v>-3.0294E-09</v>
+        <v>-1.2838E-09</v>
       </c>
       <c r="P23">
-        <v>-9.486E-10</v>
+        <v>1.7678E-10</v>
       </c>
       <c r="Q23">
-        <v>-1.3885E-09</v>
+        <v>-7.2968E-10</v>
       </c>
       <c r="R23">
-        <v>-2.4504E-09</v>
+        <v>-2.5877E-10</v>
       </c>
       <c r="S23">
-        <v>-2.9086E-09</v>
+        <v>-7.3348E-10</v>
       </c>
       <c r="T23">
-        <v>-2.4595E-09</v>
+        <v>3.2548E-10</v>
       </c>
       <c r="U23">
-        <v>-2.9672E-09</v>
+        <v>-1.2309E-10</v>
       </c>
       <c r="V23">
-        <v>-2.2128E-09</v>
+        <v>-4.2042E-10</v>
       </c>
       <c r="W23">
-        <v>-1.2713E-09</v>
+        <v>-2.2219E-11</v>
       </c>
       <c r="X23">
-        <v>-1.0033E-08</v>
+        <v>-3.2032E-09</v>
       </c>
       <c r="Y23">
-        <v>-2.9283E-09</v>
+        <v>-3.0522E-10</v>
       </c>
       <c r="Z23">
-        <v>-5.5988E-09</v>
+        <v>-3.9589E-10</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="B24">
-        <v>-8.884800000000001E-09</v>
+        <v>-3.6792E-09</v>
       </c>
       <c r="C24">
-        <v>-3.0513E-09</v>
+        <v>-1.021E-09</v>
       </c>
       <c r="D24">
-        <v>-5.9109E-09</v>
+        <v>-2.0478E-09</v>
       </c>
       <c r="E24">
-        <v>-3.1693E-09</v>
+        <v>-3.8958E-11</v>
       </c>
       <c r="F24">
-        <v>-6.039599999999999E-10</v>
+        <v>3.1814E-10</v>
       </c>
       <c r="G24">
-        <v>-5.704E-09</v>
+        <v>-4.4087E-09</v>
       </c>
       <c r="H24">
-        <v>-1.0843E-08</v>
+        <v>-1.7753E-09</v>
       </c>
       <c r="I24">
-        <v>-9.359599999999999E-10</v>
+        <v>4.5604E-11</v>
       </c>
       <c r="J24">
-        <v>-2.395E-09</v>
+        <v>-8.1854E-11</v>
       </c>
       <c r="K24">
-        <v>-3.5449E-09</v>
+        <v>-1.2813E-12</v>
       </c>
       <c r="L24">
-        <v>-1.8011E-09</v>
+        <v>-3.6917E-11</v>
       </c>
       <c r="M24">
-        <v>-7.6681E-09</v>
+        <v>-3.0807E-09</v>
       </c>
       <c r="N24">
-        <v>-4.5481E-09</v>
+        <v>-2.4774E-09</v>
       </c>
       <c r="O24">
-        <v>-2.5151E-09</v>
+        <v>-5.138E-10</v>
       </c>
       <c r="P24">
-        <v>-7.6358E-10</v>
+        <v>2.4135E-10</v>
       </c>
       <c r="Q24">
-        <v>-1.2262E-09</v>
+        <v>-4.2989E-10</v>
       </c>
       <c r="R24">
-        <v>-2.0496E-09</v>
+        <v>-7.5583E-11</v>
       </c>
       <c r="S24">
-        <v>-2.3884E-09</v>
+        <v>-2.246E-10</v>
       </c>
       <c r="T24">
-        <v>-1.9074E-09</v>
+        <v>4.3272E-10</v>
       </c>
       <c r="U24">
-        <v>-2.4155E-09</v>
+        <v>7.459400000000001E-11</v>
       </c>
       <c r="V24">
-        <v>-1.9757E-09</v>
+        <v>-1.7406E-10</v>
       </c>
       <c r="W24">
-        <v>-1.0536E-09</v>
+        <v>2.0844E-10</v>
       </c>
       <c r="X24">
-        <v>-8.6159E-09</v>
+        <v>-1.1736E-09</v>
       </c>
       <c r="Y24">
-        <v>-2.2989E-09</v>
+        <v>-2.3385E-11</v>
       </c>
       <c r="Z24">
-        <v>-4.5207E-09</v>
+        <v>1.65E-11</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="B25">
-        <v>-7.3114E-09</v>
+        <v>-1.4012E-09</v>
       </c>
       <c r="C25">
-        <v>-2.594E-09</v>
+        <v>-3.7376E-10</v>
       </c>
       <c r="D25">
-        <v>-4.8712E-09</v>
+        <v>-8.1374E-10</v>
       </c>
       <c r="E25">
-        <v>-2.5626E-09</v>
+        <v>-3.1771E-12</v>
       </c>
       <c r="F25">
-        <v>-4.4919E-10</v>
+        <v>3.741E-10</v>
       </c>
       <c r="G25">
-        <v>-5.5582E-09</v>
+        <v>-3.3996E-09</v>
       </c>
       <c r="H25">
-        <v>-9.4611E-09</v>
+        <v>-7.3937E-10</v>
       </c>
       <c r="I25">
-        <v>-8.4639E-10</v>
+        <v>4.9146E-11</v>
       </c>
       <c r="J25">
-        <v>-2.0594E-09</v>
+        <v>8.2667E-11</v>
       </c>
       <c r="K25">
-        <v>-3.0099E-09</v>
+        <v>1.0365E-10</v>
       </c>
       <c r="L25">
-        <v>-1.6078E-09</v>
+        <v>1.5323E-10</v>
       </c>
       <c r="M25">
-        <v>-6.686E-09</v>
+        <v>-1.4091E-09</v>
       </c>
       <c r="N25">
-        <v>-4.1174E-09</v>
+        <v>-1.7274E-09</v>
       </c>
       <c r="O25">
-        <v>-2.067E-09</v>
+        <v>-1.4618E-10</v>
       </c>
       <c r="P25">
-        <v>-6.1014E-10</v>
+        <v>3.711E-10</v>
       </c>
       <c r="Q25">
-        <v>-1.0741E-09</v>
+        <v>-1.4949E-10</v>
       </c>
       <c r="R25">
-        <v>-1.6481E-09</v>
+        <v>-4.0624E-13</v>
       </c>
       <c r="S25">
-        <v>-1.9747E-09</v>
+        <v>1.0115E-11</v>
       </c>
       <c r="T25">
-        <v>-1.5084E-09</v>
+        <v>4.3648E-10</v>
       </c>
       <c r="U25">
-        <v>-2.0047E-09</v>
+        <v>1.0925E-10</v>
       </c>
       <c r="V25">
-        <v>-1.7039E-09</v>
+        <v>-7.0333E-11</v>
       </c>
       <c r="W25">
-        <v>-8.506E-10</v>
+        <v>2.3732E-10</v>
       </c>
       <c r="X25">
-        <v>-7.3514E-09</v>
+        <v>-3.9175E-10</v>
       </c>
       <c r="Y25">
-        <v>-1.7661E-09</v>
+        <v>7.051E-11</v>
       </c>
       <c r="Z25">
-        <v>-3.6273E-09</v>
+        <v>2.1178E-10</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="B26">
-        <v>-5.9151E-09</v>
+        <v>-3.1951E-10</v>
       </c>
       <c r="C26">
-        <v>-2.1269E-09</v>
+        <v>-4.8157E-11</v>
       </c>
       <c r="D26">
-        <v>-3.9929E-09</v>
+        <v>-2.7406E-10</v>
       </c>
       <c r="E26">
-        <v>-2.0781E-09</v>
+        <v>6.003099999999999E-11</v>
       </c>
       <c r="F26">
-        <v>-3.0865E-10</v>
+        <v>3.6685E-10</v>
       </c>
       <c r="G26">
-        <v>-5.518E-09</v>
+        <v>-2.2578E-09</v>
       </c>
       <c r="H26">
-        <v>-8.1091E-09</v>
+        <v>-2.7035E-10</v>
       </c>
       <c r="I26">
-        <v>-6.427E-10</v>
+        <v>5.4656E-11</v>
       </c>
       <c r="J26">
-        <v>-1.7641E-09</v>
+        <v>1.328E-10</v>
       </c>
       <c r="K26">
-        <v>-2.4836E-09</v>
+        <v>1.6131E-10</v>
       </c>
       <c r="L26">
-        <v>-1.4175E-09</v>
+        <v>1.6933E-10</v>
       </c>
       <c r="M26">
-        <v>-5.7375E-09</v>
+        <v>-6.04E-10</v>
       </c>
       <c r="N26">
-        <v>-3.7388E-09</v>
+        <v>-1.0386E-09</v>
       </c>
       <c r="O26">
-        <v>-1.6735E-09</v>
+        <v>4.1792E-11</v>
       </c>
       <c r="P26">
-        <v>-5.6111E-10</v>
+        <v>4.8486E-10</v>
       </c>
       <c r="Q26">
-        <v>-9.788E-10</v>
+        <v>-4.651E-11</v>
       </c>
       <c r="R26">
-        <v>-1.4013E-09</v>
+        <v>1.0388E-10</v>
       </c>
       <c r="S26">
-        <v>-1.6606E-09</v>
+        <v>4.4875E-11</v>
       </c>
       <c r="T26">
-        <v>-1.1763E-09</v>
+        <v>4.4502E-10</v>
       </c>
       <c r="U26">
-        <v>-1.6468E-09</v>
+        <v>1.5694E-10</v>
       </c>
       <c r="V26">
-        <v>-1.4913E-09</v>
+        <v>-1.9573E-11</v>
       </c>
       <c r="W26">
-        <v>-7.5169E-10</v>
+        <v>2.6342E-10</v>
       </c>
       <c r="X26">
-        <v>-6.1225E-09</v>
+        <v>-1.2797E-10</v>
       </c>
       <c r="Y26">
-        <v>-1.4154E-09</v>
+        <v>1.3388E-10</v>
       </c>
       <c r="Z26">
-        <v>-2.9619E-09</v>
+        <v>2.1214E-10</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="B27">
-        <v>-4.7341E-09</v>
+        <v>1.0142E-10</v>
       </c>
       <c r="C27">
-        <v>-1.7639E-09</v>
+        <v>4.4159E-11</v>
       </c>
       <c r="D27">
-        <v>-3.3044E-09</v>
+        <v>-9.901E-11</v>
       </c>
       <c r="E27">
-        <v>-1.6892E-09</v>
+        <v>1.164E-10</v>
       </c>
       <c r="F27">
-        <v>-2.0437E-10</v>
+        <v>4.1821E-10</v>
       </c>
       <c r="G27">
-        <v>-5.3657E-09</v>
+        <v>-1.2619E-09</v>
       </c>
       <c r="H27">
-        <v>-6.9552E-09</v>
+        <v>-2.4844E-11</v>
       </c>
       <c r="I27">
-        <v>-5.6766E-10</v>
+        <v>1.1551E-10</v>
       </c>
       <c r="J27">
-        <v>-1.5161E-09</v>
+        <v>1.766E-10</v>
       </c>
       <c r="K27">
-        <v>-2.102E-09</v>
+        <v>1.8602E-10</v>
       </c>
       <c r="L27">
-        <v>-1.2605E-09</v>
+        <v>1.9065E-10</v>
       </c>
       <c r="M27">
-        <v>-4.8899E-09</v>
+        <v>-2.6458E-10</v>
       </c>
       <c r="N27">
-        <v>-3.4377E-09</v>
+        <v>-6.0782E-10</v>
       </c>
       <c r="O27">
-        <v>-1.3929E-09</v>
+        <v>1.1548E-10</v>
       </c>
       <c r="P27">
-        <v>-4.1638E-10</v>
+        <v>4.6059E-10</v>
       </c>
       <c r="Q27">
-        <v>-8.5435E-10</v>
+        <v>6.8021E-12</v>
       </c>
       <c r="R27">
-        <v>-1.1068E-09</v>
+        <v>9.744800000000001E-11</v>
       </c>
       <c r="S27">
-        <v>-1.3784E-09</v>
+        <v>4.5156E-11</v>
       </c>
       <c r="T27">
-        <v>-8.8669E-10</v>
+        <v>4.9298E-10</v>
       </c>
       <c r="U27">
-        <v>-1.3039E-09</v>
+        <v>1.8957E-10</v>
       </c>
       <c r="V27">
-        <v>-1.3274E-09</v>
+        <v>1.3918E-10</v>
       </c>
       <c r="W27">
-        <v>-6.1792E-10</v>
+        <v>2.9679E-10</v>
       </c>
       <c r="X27">
-        <v>-5.2361E-09</v>
+        <v>3.9479E-11</v>
       </c>
       <c r="Y27">
-        <v>-1.0743E-09</v>
+        <v>1.4769E-10</v>
       </c>
       <c r="Z27">
-        <v>-2.3636E-09</v>
+        <v>3.0715E-10</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B28">
-        <v>-3.7585E-09</v>
+        <v>2.2848E-10</v>
       </c>
       <c r="C28">
-        <v>-1.449E-09</v>
+        <v>1.4282E-10</v>
       </c>
       <c r="D28">
-        <v>-2.7611E-09</v>
+        <v>-3.3885E-11</v>
       </c>
       <c r="E28">
-        <v>-1.3049E-09</v>
+        <v>1.5715E-10</v>
       </c>
       <c r="F28">
-        <v>-1.6515E-10</v>
+        <v>4.8219E-10</v>
       </c>
       <c r="G28">
-        <v>-5.0923E-09</v>
+        <v>-6.1676E-10</v>
       </c>
       <c r="H28">
-        <v>-6.0429E-09</v>
+        <v>1.4075E-10</v>
       </c>
       <c r="I28">
-        <v>-4.245E-10</v>
+        <v>1.597E-10</v>
       </c>
       <c r="J28">
-        <v>-1.231E-09</v>
+        <v>9.1865E-11</v>
       </c>
       <c r="K28">
-        <v>-1.7746E-09</v>
+        <v>2.1421E-10</v>
       </c>
       <c r="L28">
-        <v>-1.104E-09</v>
+        <v>2.1697E-10</v>
       </c>
       <c r="M28">
-        <v>-4.1866E-09</v>
+        <v>-1.4085E-10</v>
       </c>
       <c r="N28">
-        <v>-3.042E-09</v>
+        <v>-4.0342E-10</v>
       </c>
       <c r="O28">
-        <v>-1.1757E-09</v>
+        <v>1.294E-10</v>
       </c>
       <c r="P28">
-        <v>-2.5973E-10</v>
+        <v>5.4252E-10</v>
       </c>
       <c r="Q28">
-        <v>-7.1248E-10</v>
+        <v>4.3563E-11</v>
       </c>
       <c r="R28">
-        <v>-9.2196E-10</v>
+        <v>1.3494E-10</v>
       </c>
       <c r="S28">
-        <v>-1.1335E-09</v>
+        <v>1.2825E-10</v>
       </c>
       <c r="T28">
-        <v>-6.7208E-10</v>
+        <v>5.4494E-10</v>
       </c>
       <c r="U28">
-        <v>-1.0945E-09</v>
+        <v>1.8498E-10</v>
       </c>
       <c r="V28">
-        <v>-1.1179E-09</v>
+        <v>1.0559E-10</v>
       </c>
       <c r="W28">
-        <v>-5.5666E-10</v>
+        <v>3.8298E-10</v>
       </c>
       <c r="X28">
-        <v>-4.4383E-09</v>
+        <v>7.446899999999999E-11</v>
       </c>
       <c r="Y28">
-        <v>-8.005E-10</v>
+        <v>2.4689E-10</v>
       </c>
       <c r="Z28">
-        <v>-1.8943E-09</v>
+        <v>3.6855E-10</v>
       </c>
     </row>
     <row r="29" spans="1:26">
       <c r="A29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>-2.9195E-09</v>
+        <v>3.0145E-10</v>
       </c>
       <c r="C29">
-        <v>-1.1796E-09</v>
+        <v>1.3998E-10</v>
       </c>
       <c r="D29">
-        <v>-2.2444E-09</v>
+        <v>-2.6354E-11</v>
       </c>
       <c r="E29">
-        <v>-1.0352E-09</v>
+        <v>2.9277E-10</v>
       </c>
       <c r="F29">
-        <v>-9.276E-11</v>
+        <v>4.7406E-10</v>
       </c>
       <c r="G29">
-        <v>-4.7835E-09</v>
+        <v>-3.3941E-10</v>
       </c>
       <c r="H29">
-        <v>-5.073E-09</v>
+        <v>1.3742E-10</v>
       </c>
       <c r="I29">
-        <v>-3.8729E-10</v>
+        <v>1.7527E-10</v>
       </c>
       <c r="J29">
-        <v>-1.077E-09</v>
+        <v>1.7468E-10</v>
       </c>
       <c r="K29">
-        <v>-1.5101E-09</v>
+        <v>3.2491E-10</v>
       </c>
       <c r="L29">
-        <v>-9.429200000000001E-10</v>
+        <v>2.3564E-10</v>
       </c>
       <c r="M29">
-        <v>-3.6284E-09</v>
+        <v>-8.7125E-11</v>
       </c>
       <c r="N29">
-        <v>-2.7681E-09</v>
+        <v>-2.3398E-10</v>
       </c>
       <c r="O29">
-        <v>-1.0285E-09</v>
+        <v>1.9699E-10</v>
       </c>
       <c r="P29">
-        <v>-1.5046E-10</v>
+        <v>6.5106E-10</v>
       </c>
       <c r="Q29">
-        <v>-6.6856E-10</v>
+        <v>7.05E-11</v>
       </c>
       <c r="R29">
-        <v>-7.3068E-10</v>
+        <v>1.3263E-10</v>
       </c>
       <c r="S29">
-        <v>-9.4985E-10</v>
+        <v>1.6694E-10</v>
       </c>
       <c r="T29">
-        <v>-4.7394E-10</v>
+        <v>5.9521E-10</v>
       </c>
       <c r="U29">
-        <v>-9.1419E-10</v>
+        <v>1.8234E-10</v>
       </c>
       <c r="V29">
-        <v>-9.718200000000001E-10</v>
+        <v>6.8104E-11</v>
       </c>
       <c r="W29">
-        <v>-4.0247E-10</v>
+        <v>3.4266E-10</v>
       </c>
       <c r="X29">
-        <v>-3.6962E-09</v>
+        <v>7.1833E-11</v>
       </c>
       <c r="Y29">
-        <v>-6.4517E-10</v>
+        <v>2.6313E-10</v>
       </c>
       <c r="Z29">
-        <v>-1.5337E-09</v>
+        <v>3.8496E-10</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>-2.157E-09</v>
+        <v>3.8136E-10</v>
       </c>
       <c r="C30">
-        <v>-9.5033E-10</v>
+        <v>2.1987E-10</v>
       </c>
       <c r="D30">
-        <v>-1.8476E-09</v>
+        <v>4.1042E-12</v>
       </c>
       <c r="E30">
-        <v>-8.066800000000001E-10</v>
+        <v>1.9428E-10</v>
       </c>
       <c r="F30">
-        <v>-3.0656E-11</v>
+        <v>6.4741E-10</v>
       </c>
       <c r="G30">
-        <v>-4.3049E-09</v>
+        <v>-3.2283E-10</v>
       </c>
       <c r="H30">
-        <v>-4.1965E-09</v>
+        <v>1.8681E-10</v>
       </c>
       <c r="I30">
-        <v>-2.9024E-10</v>
+        <v>1.8931E-10</v>
       </c>
       <c r="J30">
-        <v>-7.9085E-10</v>
+        <v>1.8372E-10</v>
       </c>
       <c r="K30">
-        <v>-1.1797E-09</v>
+        <v>3.0296E-10</v>
       </c>
       <c r="L30">
-        <v>-8.2596E-10</v>
+        <v>2.4429E-10</v>
       </c>
       <c r="M30">
-        <v>-3.0304E-09</v>
+        <v>-7.358300000000001E-11</v>
       </c>
       <c r="N30">
-        <v>-2.4913E-09</v>
+        <v>-2.1946E-10</v>
       </c>
       <c r="O30">
-        <v>-8.2952E-10</v>
+        <v>1.224E-10</v>
       </c>
       <c r="P30">
-        <v>-2.5021E-11</v>
+        <v>7.5548E-10</v>
       </c>
       <c r="Q30">
-        <v>-6.0343E-10</v>
+        <v>7.685399999999999E-11</v>
       </c>
       <c r="R30">
-        <v>-5.8381E-10</v>
+        <v>1.5284E-10</v>
       </c>
       <c r="S30">
-        <v>-7.997E-10</v>
+        <v>1.9258E-10</v>
       </c>
       <c r="T30">
-        <v>-3.1184E-10</v>
+        <v>7.019E-10</v>
       </c>
       <c r="U30">
-        <v>-6.7879E-10</v>
+        <v>2.3408E-10</v>
       </c>
       <c r="V30">
-        <v>-8.5346E-10</v>
+        <v>1.6482E-10</v>
       </c>
       <c r="W30">
-        <v>-3.296E-10</v>
+        <v>4.8839E-10</v>
       </c>
       <c r="X30">
-        <v>-3.0598E-09</v>
+        <v>1.5823E-10</v>
       </c>
       <c r="Y30">
-        <v>-4.1189E-10</v>
+        <v>2.5379E-10</v>
       </c>
       <c r="Z30">
-        <v>-1.1471E-09</v>
+        <v>4.1569E-10</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="A31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>-1.5361E-09</v>
+        <v>5.0278E-10</v>
       </c>
       <c r="C31">
-        <v>-7.9773E-10</v>
+        <v>2.3398E-10</v>
       </c>
       <c r="D31">
-        <v>-1.4345E-09</v>
+        <v>3.2156E-11</v>
       </c>
       <c r="E31">
-        <v>-6.249200000000001E-10</v>
+        <v>2.8076E-10</v>
       </c>
       <c r="F31">
-        <v>-1.4198E-11</v>
+        <v>6.6795E-10</v>
       </c>
       <c r="G31">
-        <v>-3.7646E-09</v>
+        <v>-2.842E-10</v>
       </c>
       <c r="H31">
-        <v>-3.4252E-09</v>
+        <v>2.894E-10</v>
       </c>
       <c r="I31">
-        <v>-2.1226E-10</v>
+        <v>2.763E-10</v>
       </c>
       <c r="J31">
-        <v>-6.7665E-10</v>
+        <v>2.7908E-10</v>
       </c>
       <c r="K31">
-        <v>-9.31E-10</v>
+        <v>3.5654E-10</v>
       </c>
       <c r="L31">
-        <v>-6.7208E-10</v>
+        <v>3.0294E-10</v>
       </c>
       <c r="M31">
-        <v>-2.6047E-09</v>
+        <v>-8.0594E-11</v>
       </c>
       <c r="N31">
-        <v>-2.1969E-09</v>
+        <v>-1.7916E-10</v>
       </c>
       <c r="O31">
-        <v>-6.5382E-10</v>
+        <v>2.3765E-10</v>
       </c>
       <c r="P31">
-        <v>-2.3552E-11</v>
+        <v>8.6329E-10</v>
       </c>
       <c r="Q31">
-        <v>-5.2452E-10</v>
+        <v>1.2845E-10</v>
       </c>
       <c r="R31">
-        <v>-4.0548E-10</v>
+        <v>1.9448E-10</v>
       </c>
       <c r="S31">
-        <v>-6.4831E-10</v>
+        <v>2.7216E-10</v>
       </c>
       <c r="T31">
-        <v>-1.7818E-10</v>
+        <v>6.789299999999999E-10</v>
       </c>
       <c r="U31">
-        <v>-5.2365E-10</v>
+        <v>3.055E-10</v>
       </c>
       <c r="V31">
-        <v>-7.4784E-10</v>
+        <v>1.7192E-10</v>
       </c>
       <c r="W31">
-        <v>-2.9691E-10</v>
+        <v>5.0115E-10</v>
       </c>
       <c r="X31">
-        <v>-2.4607E-09</v>
+        <v>1.353E-10</v>
       </c>
       <c r="Y31">
-        <v>-2.5348E-10</v>
+        <v>3.5389E-10</v>
       </c>
       <c r="Z31">
-        <v>-8.303400000000001E-10</v>
+        <v>4.6881E-10</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>-9.3681E-10</v>
+        <v>4.8235E-10</v>
       </c>
       <c r="C32">
-        <v>-5.8658E-10</v>
+        <v>2.9408E-10</v>
       </c>
       <c r="D32">
-        <v>-1.1679E-09</v>
+        <v>3.5135E-11</v>
       </c>
       <c r="E32">
-        <v>-3.5871E-10</v>
+        <v>3.076E-10</v>
       </c>
       <c r="F32">
-        <v>-1.6355E-12</v>
+        <v>7.3201E-10</v>
       </c>
       <c r="G32">
-        <v>-3.3494E-09</v>
+        <v>-1.8279E-10</v>
       </c>
       <c r="H32">
-        <v>-2.7407E-09</v>
+        <v>3.3568E-10</v>
       </c>
       <c r="I32">
-        <v>-1.3902E-10</v>
+        <v>2.7241E-10</v>
       </c>
       <c r="J32">
-        <v>-4.7614E-10</v>
+        <v>2.7046E-10</v>
       </c>
       <c r="K32">
-        <v>-6.6629E-10</v>
+        <v>4.1042E-10</v>
       </c>
       <c r="L32">
-        <v>-5.7334E-10</v>
+        <v>2.6844E-10</v>
       </c>
       <c r="M32">
-        <v>-2.1422E-09</v>
+        <v>-3.2844E-11</v>
       </c>
       <c r="N32">
-        <v>-1.9362E-09</v>
+        <v>-1.8667E-10</v>
       </c>
       <c r="O32">
-        <v>-5.342E-10</v>
+        <v>3.1193E-10</v>
       </c>
       <c r="P32">
-        <v>1.6344E-11</v>
+        <v>9.444100000000001E-10</v>
       </c>
       <c r="Q32">
-        <v>-4.0388E-10</v>
+        <v>1.3185E-10</v>
       </c>
       <c r="R32">
-        <v>-2.8511E-10</v>
+        <v>2.6387E-10</v>
       </c>
       <c r="S32">
-        <v>-5.3173E-10</v>
+        <v>3.1642E-10</v>
       </c>
       <c r="T32">
-        <v>-2.9927E-11</v>
+        <v>7.1395E-10</v>
       </c>
       <c r="U32">
-        <v>-3.6514E-10</v>
+        <v>2.8958E-10</v>
       </c>
       <c r="V32">
-        <v>-5.9898E-10</v>
+        <v>2.077E-10</v>
       </c>
       <c r="W32">
-        <v>-1.6066E-10</v>
+        <v>5.8751E-10</v>
       </c>
       <c r="X32">
-        <v>-1.892E-09</v>
+        <v>2.349E-10</v>
       </c>
       <c r="Y32">
-        <v>-1.2714E-10</v>
+        <v>4.5623E-10</v>
       </c>
       <c r="Z32">
-        <v>-4.4564E-10</v>
+        <v>4.7626E-10</v>
       </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>5.8607E-10</v>
+      </c>
+      <c r="C33">
+        <v>3.111E-10</v>
+      </c>
+      <c r="D33">
+        <v>5.5344E-11</v>
+      </c>
+      <c r="E33">
+        <v>4.6198E-10</v>
+      </c>
+      <c r="F33">
+        <v>8.2922E-10</v>
+      </c>
+      <c r="G33">
+        <v>-2.3244E-10</v>
+      </c>
+      <c r="H33">
+        <v>4.6434E-10</v>
+      </c>
+      <c r="I33">
+        <v>3.7948E-10</v>
+      </c>
+      <c r="J33">
+        <v>3.9351E-10</v>
+      </c>
+      <c r="K33">
+        <v>4.9469E-10</v>
+      </c>
+      <c r="L33">
+        <v>3.6622E-10</v>
+      </c>
+      <c r="M33">
+        <v>-3.3646E-12</v>
+      </c>
+      <c r="N33">
+        <v>-1.2446E-10</v>
+      </c>
+      <c r="O33">
+        <v>3.4145E-10</v>
+      </c>
+      <c r="P33">
+        <v>1.0504E-09</v>
+      </c>
+      <c r="Q33">
+        <v>1.6887E-10</v>
+      </c>
+      <c r="R33">
+        <v>2.973E-10</v>
+      </c>
+      <c r="S33">
+        <v>2.7129E-10</v>
+      </c>
+      <c r="T33">
+        <v>7.467E-10</v>
+      </c>
+      <c r="U33">
+        <v>3.4357E-10</v>
+      </c>
+      <c r="V33">
+        <v>2.7317E-10</v>
+      </c>
+      <c r="W33">
+        <v>6.1491E-10</v>
+      </c>
+      <c r="X33">
+        <v>2.8388E-10</v>
+      </c>
+      <c r="Y33">
+        <v>4.8528E-10</v>
+      </c>
+      <c r="Z33">
+        <v>6.3866E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
         <v>25</v>
       </c>
-      <c r="B33">
+      <c r="B34">
+        <v>6.3224E-10</v>
+      </c>
+      <c r="C34">
+        <v>3.1907E-10</v>
+      </c>
+      <c r="D34">
+        <v>9.1615E-11</v>
+      </c>
+      <c r="E34">
+        <v>4.4246E-10</v>
+      </c>
+      <c r="F34">
+        <v>8.7902E-10</v>
+      </c>
+      <c r="G34">
+        <v>-2.1744E-10</v>
+      </c>
+      <c r="H34">
+        <v>5.0463E-10</v>
+      </c>
+      <c r="I34">
+        <v>4.0929E-10</v>
+      </c>
+      <c r="J34">
+        <v>4.2996E-10</v>
+      </c>
+      <c r="K34">
+        <v>6.6293E-10</v>
+      </c>
+      <c r="L34">
+        <v>2.9198E-10</v>
+      </c>
+      <c r="M34">
+        <v>4.5865E-11</v>
+      </c>
+      <c r="N34">
+        <v>-1.4549E-10</v>
+      </c>
+      <c r="O34">
+        <v>3.158E-10</v>
+      </c>
+      <c r="P34">
+        <v>1.2207E-09</v>
+      </c>
+      <c r="Q34">
+        <v>1.4526E-10</v>
+      </c>
+      <c r="R34">
+        <v>3.2653E-10</v>
+      </c>
+      <c r="S34">
+        <v>3.9275E-10</v>
+      </c>
+      <c r="T34">
+        <v>8.6525E-10</v>
+      </c>
+      <c r="U34">
+        <v>4.3254E-10</v>
+      </c>
+      <c r="V34">
+        <v>2.9373E-10</v>
+      </c>
+      <c r="W34">
+        <v>7.4317E-10</v>
+      </c>
+      <c r="X34">
+        <v>2.7133E-10</v>
+      </c>
+      <c r="Y34">
+        <v>5.062E-10</v>
+      </c>
+      <c r="Z34">
+        <v>6.899E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>-120</v>
+      </c>
+      <c r="B37">
+        <v>-1.4937E-10</v>
+      </c>
+      <c r="C37">
+        <v>-8.7932E-11</v>
+      </c>
+      <c r="D37">
+        <v>-5.3948E-11</v>
+      </c>
+      <c r="E37">
+        <v>-9.6354E-11</v>
+      </c>
+      <c r="F37">
+        <v>-5.0365E-11</v>
+      </c>
+      <c r="G37">
+        <v>-6.2521E-11</v>
+      </c>
+      <c r="H37">
+        <v>-7.6865E-11</v>
+      </c>
+      <c r="I37">
+        <v>-8.234400000000001E-11</v>
+      </c>
+      <c r="J37">
+        <v>-6.7792E-11</v>
+      </c>
+      <c r="K37">
+        <v>-8.0948E-11</v>
+      </c>
+      <c r="L37">
+        <v>-5.9917E-11</v>
+      </c>
+      <c r="M37">
+        <v>-8.9229E-11</v>
+      </c>
+      <c r="N37">
+        <v>-6.6802E-11</v>
+      </c>
+      <c r="O37">
+        <v>-6.9771E-11</v>
+      </c>
+      <c r="P37">
+        <v>-6.620800000000001E-11</v>
+      </c>
+      <c r="Q37">
+        <v>-5.8146E-11</v>
+      </c>
+      <c r="R37">
+        <v>-7.9854E-11</v>
+      </c>
+      <c r="S37">
+        <v>-8.1365E-11</v>
+      </c>
+      <c r="T37">
+        <v>-6.4885E-11</v>
+      </c>
+      <c r="U37">
+        <v>-4.276E-11</v>
+      </c>
+      <c r="V37">
+        <v>-6.4021E-11</v>
+      </c>
+      <c r="W37">
+        <v>-1.1582E-10</v>
+      </c>
+      <c r="X37">
+        <v>-1.0525E-10</v>
+      </c>
+      <c r="Y37">
+        <v>-6.3125E-11</v>
+      </c>
+      <c r="Z37">
+        <v>-8.638499999999999E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>-115</v>
+      </c>
+      <c r="B38">
+        <v>-1.4262E-10</v>
+      </c>
+      <c r="C38">
+        <v>-4.8183E-11</v>
+      </c>
+      <c r="D38">
+        <v>-5.225E-11</v>
+      </c>
+      <c r="E38">
+        <v>-9.2917E-11</v>
+      </c>
+      <c r="F38">
+        <v>-6.201E-11</v>
+      </c>
+      <c r="G38">
+        <v>-8.9563E-11</v>
+      </c>
+      <c r="H38">
+        <v>-5.8979E-11</v>
+      </c>
+      <c r="I38">
+        <v>-8.387499999999999E-11</v>
+      </c>
+      <c r="J38">
+        <v>-9.005200000000001E-11</v>
+      </c>
+      <c r="K38">
+        <v>-1.1416E-10</v>
+      </c>
+      <c r="L38">
+        <v>-5.1219E-11</v>
+      </c>
+      <c r="M38">
+        <v>-5.674E-11</v>
+      </c>
+      <c r="N38">
+        <v>-2.926E-11</v>
+      </c>
+      <c r="O38">
+        <v>-7.725E-11</v>
+      </c>
+      <c r="P38">
+        <v>-4.6864E-11</v>
+      </c>
+      <c r="Q38">
+        <v>-7.9167E-11</v>
+      </c>
+      <c r="R38">
+        <v>-5.2802E-11</v>
+      </c>
+      <c r="S38">
+        <v>-6.5177E-11</v>
+      </c>
+      <c r="T38">
+        <v>-6.6313E-11</v>
+      </c>
+      <c r="U38">
+        <v>-5.3875E-11</v>
+      </c>
+      <c r="V38">
+        <v>-5.0698E-11</v>
+      </c>
+      <c r="W38">
+        <v>-9.474E-11</v>
+      </c>
+      <c r="X38">
+        <v>-7.857300000000001E-11</v>
+      </c>
+      <c r="Y38">
+        <v>-2.5031E-11</v>
+      </c>
+      <c r="Z38">
+        <v>-4.6594E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>-110</v>
+      </c>
+      <c r="B39">
+        <v>-1.2515E-10</v>
+      </c>
+      <c r="C39">
+        <v>-8.1406E-11</v>
+      </c>
+      <c r="D39">
+        <v>-5.2125E-11</v>
+      </c>
+      <c r="E39">
+        <v>-1.0863E-10</v>
+      </c>
+      <c r="F39">
+        <v>-3.2187E-11</v>
+      </c>
+      <c r="G39">
+        <v>-1.2896E-10</v>
+      </c>
+      <c r="H39">
+        <v>-1.047E-10</v>
+      </c>
+      <c r="I39">
+        <v>-3.625E-11</v>
+      </c>
+      <c r="J39">
+        <v>-1.3716E-10</v>
+      </c>
+      <c r="K39">
+        <v>-1.315E-10</v>
+      </c>
+      <c r="L39">
+        <v>-1.0152E-10</v>
+      </c>
+      <c r="M39">
+        <v>-7.163499999999999E-11</v>
+      </c>
+      <c r="N39">
+        <v>-8.472900000000001E-11</v>
+      </c>
+      <c r="O39">
+        <v>-8.435399999999999E-11</v>
+      </c>
+      <c r="P39">
+        <v>-2.5812E-11</v>
+      </c>
+      <c r="Q39">
+        <v>-6.1156E-11</v>
+      </c>
+      <c r="R39">
+        <v>-6.6115E-11</v>
+      </c>
+      <c r="S39">
+        <v>-1.0951E-10</v>
+      </c>
+      <c r="T39">
+        <v>-8.012499999999999E-11</v>
+      </c>
+      <c r="U39">
+        <v>-7.903100000000001E-11</v>
+      </c>
+      <c r="V39">
+        <v>-8.2135E-11</v>
+      </c>
+      <c r="W39">
+        <v>-8.422899999999999E-11</v>
+      </c>
+      <c r="X39">
+        <v>-9.4844E-11</v>
+      </c>
+      <c r="Y39">
+        <v>-5.8646E-11</v>
+      </c>
+      <c r="Z39">
+        <v>-1.1346E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>-105</v>
+      </c>
+      <c r="B40">
+        <v>-1.4081E-10</v>
+      </c>
+      <c r="C40">
+        <v>-8.019400000000001E-11</v>
+      </c>
+      <c r="D40">
+        <v>-4.1573E-11</v>
+      </c>
+      <c r="E40">
+        <v>-1.7666E-10</v>
+      </c>
+      <c r="F40">
+        <v>-5.3885E-11</v>
+      </c>
+      <c r="G40">
+        <v>-1.2527E-10</v>
+      </c>
+      <c r="H40">
+        <v>-2.064E-10</v>
+      </c>
+      <c r="I40">
+        <v>-6.3833E-11</v>
+      </c>
+      <c r="J40">
+        <v>-1.4034E-10</v>
+      </c>
+      <c r="K40">
+        <v>-2.1761E-10</v>
+      </c>
+      <c r="L40">
+        <v>-1.6986E-10</v>
+      </c>
+      <c r="M40">
+        <v>-8.9271E-11</v>
+      </c>
+      <c r="N40">
+        <v>-1.0012E-10</v>
+      </c>
+      <c r="O40">
+        <v>-9.5719E-11</v>
+      </c>
+      <c r="P40">
+        <v>-1.4281E-10</v>
+      </c>
+      <c r="Q40">
+        <v>-5.2927E-11</v>
+      </c>
+      <c r="R40">
+        <v>-7.1594E-11</v>
+      </c>
+      <c r="S40">
+        <v>-1.2606E-10</v>
+      </c>
+      <c r="T40">
+        <v>-1.635E-10</v>
+      </c>
+      <c r="U40">
+        <v>-1.6349E-10</v>
+      </c>
+      <c r="V40">
+        <v>-6.7708E-11</v>
+      </c>
+      <c r="W40">
+        <v>-7.5083E-11</v>
+      </c>
+      <c r="X40">
+        <v>-1.7253E-10</v>
+      </c>
+      <c r="Y40">
+        <v>-1.0079E-10</v>
+      </c>
+      <c r="Z40">
+        <v>-1.6673E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>-100</v>
+      </c>
+      <c r="B41">
+        <v>-8.7597E-11</v>
+      </c>
+      <c r="C41">
+        <v>-8.2102E-11</v>
+      </c>
+      <c r="D41">
+        <v>-9.174E-11</v>
+      </c>
+      <c r="E41">
+        <v>-2.4166E-10</v>
+      </c>
+      <c r="F41">
+        <v>-9.945799999999999E-11</v>
+      </c>
+      <c r="G41">
+        <v>-1.6934E-10</v>
+      </c>
+      <c r="H41">
+        <v>-3.2348E-09</v>
+      </c>
+      <c r="I41">
+        <v>-9.0625E-11</v>
+      </c>
+      <c r="J41">
+        <v>-2.2747E-10</v>
+      </c>
+      <c r="K41">
+        <v>-3.3906E-10</v>
+      </c>
+      <c r="L41">
+        <v>-3.391E-10</v>
+      </c>
+      <c r="M41">
+        <v>-9.9094E-11</v>
+      </c>
+      <c r="N41">
+        <v>-2.1258E-10</v>
+      </c>
+      <c r="O41">
+        <v>-1.3701E-10</v>
+      </c>
+      <c r="P41">
+        <v>-7.006200000000001E-11</v>
+      </c>
+      <c r="Q41">
+        <v>-4.3948E-11</v>
+      </c>
+      <c r="R41">
+        <v>-1.072E-10</v>
+      </c>
+      <c r="S41">
+        <v>-1.2272E-10</v>
+      </c>
+      <c r="T41">
+        <v>-2.629E-10</v>
+      </c>
+      <c r="U41">
+        <v>-2.1655E-10</v>
+      </c>
+      <c r="V41">
+        <v>-1.5882E-10</v>
+      </c>
+      <c r="W41">
+        <v>-9.8948E-11</v>
+      </c>
+      <c r="X41">
+        <v>-2.1578E-10</v>
+      </c>
+      <c r="Y41">
+        <v>-1.5549E-10</v>
+      </c>
+      <c r="Z41">
+        <v>-2.0996E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>-95</v>
+      </c>
+      <c r="B42">
+        <v>-1.5562E-10</v>
+      </c>
+      <c r="C42">
+        <v>-1.2252E-10</v>
+      </c>
+      <c r="D42">
+        <v>-1.3064E-10</v>
+      </c>
+      <c r="E42">
+        <v>-4.3116E-10</v>
+      </c>
+      <c r="F42">
+        <v>-1.2406E-10</v>
+      </c>
+      <c r="G42">
+        <v>-2.6595E-10</v>
+      </c>
+      <c r="H42">
+        <v>-3.6222E-09</v>
+      </c>
+      <c r="I42">
+        <v>-1.1347E-10</v>
+      </c>
+      <c r="J42">
+        <v>-2.8949E-10</v>
+      </c>
+      <c r="K42">
+        <v>-4.9184E-10</v>
+      </c>
+      <c r="L42">
+        <v>-5.0613E-10</v>
+      </c>
+      <c r="M42">
+        <v>-1.4907E-10</v>
+      </c>
+      <c r="N42">
+        <v>-3.7234E-10</v>
+      </c>
+      <c r="O42">
+        <v>-1.7023E-10</v>
+      </c>
+      <c r="P42">
+        <v>-6.174999999999999E-11</v>
+      </c>
+      <c r="Q42">
+        <v>-6.5719E-11</v>
+      </c>
+      <c r="R42">
+        <v>-1.0877E-10</v>
+      </c>
+      <c r="S42">
+        <v>-1.7274E-10</v>
+      </c>
+      <c r="T42">
+        <v>-4.5384E-10</v>
+      </c>
+      <c r="U42">
+        <v>-3.1147E-10</v>
+      </c>
+      <c r="V42">
+        <v>-2.139E-10</v>
+      </c>
+      <c r="W42">
+        <v>-1.3515E-10</v>
+      </c>
+      <c r="X42">
+        <v>-3.0331E-10</v>
+      </c>
+      <c r="Y42">
+        <v>-1.6865E-10</v>
+      </c>
+      <c r="Z42">
+        <v>-3.6133E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>-90</v>
+      </c>
+      <c r="B43">
+        <v>-2.0883E-10</v>
+      </c>
+      <c r="C43">
+        <v>-9.672799999999999E-11</v>
+      </c>
+      <c r="D43">
+        <v>-1.8834E-10</v>
+      </c>
+      <c r="E43">
+        <v>-7.5195E-10</v>
+      </c>
+      <c r="F43">
+        <v>-2.8365E-10</v>
+      </c>
+      <c r="G43">
+        <v>-3.3383E-10</v>
+      </c>
+      <c r="H43">
+        <v>-3.6583E-09</v>
+      </c>
+      <c r="I43">
+        <v>-1.996E-10</v>
+      </c>
+      <c r="J43">
+        <v>-3.1535E-10</v>
+      </c>
+      <c r="K43">
+        <v>-7.0177E-10</v>
+      </c>
+      <c r="L43">
+        <v>-7.652899999999999E-10</v>
+      </c>
+      <c r="M43">
+        <v>-2.0472E-10</v>
+      </c>
+      <c r="N43">
+        <v>-6.6524E-10</v>
+      </c>
+      <c r="O43">
+        <v>-3.1997E-10</v>
+      </c>
+      <c r="P43">
+        <v>-9.7208E-11</v>
+      </c>
+      <c r="Q43">
+        <v>-1.0801E-10</v>
+      </c>
+      <c r="R43">
+        <v>-2.592E-10</v>
+      </c>
+      <c r="S43">
+        <v>-2.9222E-10</v>
+      </c>
+      <c r="T43">
+        <v>-7.5737E-10</v>
+      </c>
+      <c r="U43">
+        <v>-5.1563E-10</v>
+      </c>
+      <c r="V43">
+        <v>-2.3909E-10</v>
+      </c>
+      <c r="W43">
+        <v>-2.0151E-10</v>
+      </c>
+      <c r="X43">
+        <v>-9.8389E-10</v>
+      </c>
+      <c r="Y43">
+        <v>-2.5256E-10</v>
+      </c>
+      <c r="Z43">
+        <v>-5.8385E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>-85</v>
+      </c>
+      <c r="B44">
+        <v>-3.5309E-10</v>
+      </c>
+      <c r="C44">
+        <v>-1.7362E-10</v>
+      </c>
+      <c r="D44">
+        <v>-2.622E-10</v>
+      </c>
+      <c r="E44">
+        <v>-1.8608E-09</v>
+      </c>
+      <c r="F44">
+        <v>-4.7909E-10</v>
+      </c>
+      <c r="G44">
+        <v>-5.6023E-10</v>
+      </c>
+      <c r="H44">
+        <v>-3.7228E-09</v>
+      </c>
+      <c r="I44">
+        <v>-2.4962E-10</v>
+      </c>
+      <c r="J44">
+        <v>-4.1481E-10</v>
+      </c>
+      <c r="K44">
+        <v>-9.854200000000001E-10</v>
+      </c>
+      <c r="L44">
+        <v>-9.2888E-10</v>
+      </c>
+      <c r="M44">
+        <v>-3.7003E-10</v>
+      </c>
+      <c r="N44">
+        <v>-7.7407E-10</v>
+      </c>
+      <c r="O44">
+        <v>-4.58E-10</v>
+      </c>
+      <c r="P44">
+        <v>-1.3127E-10</v>
+      </c>
+      <c r="Q44">
+        <v>-8.3156E-11</v>
+      </c>
+      <c r="R44">
+        <v>-3.6801E-10</v>
+      </c>
+      <c r="S44">
+        <v>-4.6288E-10</v>
+      </c>
+      <c r="T44">
+        <v>-1.316E-09</v>
+      </c>
+      <c r="U44">
+        <v>-8.711E-10</v>
+      </c>
+      <c r="V44">
+        <v>-5.2565E-10</v>
+      </c>
+      <c r="W44">
+        <v>-2.5761E-10</v>
+      </c>
+      <c r="X44">
+        <v>-1.8819E-09</v>
+      </c>
+      <c r="Y44">
+        <v>-4.9669E-10</v>
+      </c>
+      <c r="Z44">
+        <v>-1.1528E-09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>-80</v>
+      </c>
+      <c r="B45">
+        <v>-6.1158E-10</v>
+      </c>
+      <c r="C45">
+        <v>-1.9526E-10</v>
+      </c>
+      <c r="D45">
+        <v>-4.5825E-10</v>
+      </c>
+      <c r="E45">
+        <v>-2.7188E-09</v>
+      </c>
+      <c r="F45">
+        <v>-8.381E-10</v>
+      </c>
+      <c r="G45">
+        <v>-7.656E-10</v>
+      </c>
+      <c r="H45">
+        <v>-4.1568E-09</v>
+      </c>
+      <c r="I45">
+        <v>-4.073E-10</v>
+      </c>
+      <c r="J45">
+        <v>-6.4342E-10</v>
+      </c>
+      <c r="K45">
+        <v>-1.3531E-09</v>
+      </c>
+      <c r="L45">
+        <v>-1.1893E-09</v>
+      </c>
+      <c r="M45">
+        <v>-5.547E-10</v>
+      </c>
+      <c r="N45">
+        <v>-8.5454E-10</v>
+      </c>
+      <c r="O45">
+        <v>-6.6273E-10</v>
+      </c>
+      <c r="P45">
+        <v>-3.4446E-10</v>
+      </c>
+      <c r="Q45">
+        <v>-8.3208E-11</v>
+      </c>
+      <c r="R45">
+        <v>-6.9978E-10</v>
+      </c>
+      <c r="S45">
+        <v>-7.5906E-10</v>
+      </c>
+      <c r="T45">
+        <v>-2.1413E-09</v>
+      </c>
+      <c r="U45">
+        <v>-1.3044E-09</v>
+      </c>
+      <c r="V45">
+        <v>-7.5916E-10</v>
+      </c>
+      <c r="W45">
+        <v>-3.9184E-10</v>
+      </c>
+      <c r="X45">
+        <v>-3.8089E-09</v>
+      </c>
+      <c r="Y45">
+        <v>-8.4327E-10</v>
+      </c>
+      <c r="Z45">
+        <v>-2.0345E-09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>-75</v>
+      </c>
+      <c r="B46">
+        <v>-1.0296E-09</v>
+      </c>
+      <c r="C46">
+        <v>-3.126E-10</v>
+      </c>
+      <c r="D46">
+        <v>-7.2859E-10</v>
+      </c>
+      <c r="E46">
+        <v>-4.0228E-09</v>
+      </c>
+      <c r="F46">
+        <v>-1.3723E-09</v>
+      </c>
+      <c r="G46">
+        <v>-1.0156E-09</v>
+      </c>
+      <c r="H46">
+        <v>-4.721E-09</v>
+      </c>
+      <c r="I46">
+        <v>-6.9057E-10</v>
+      </c>
+      <c r="J46">
+        <v>-9.1749E-10</v>
+      </c>
+      <c r="K46">
+        <v>-2.0158E-09</v>
+      </c>
+      <c r="L46">
+        <v>-1.3929E-09</v>
+      </c>
+      <c r="M46">
+        <v>-7.8083E-10</v>
+      </c>
+      <c r="N46">
+        <v>-9.890100000000001E-10</v>
+      </c>
+      <c r="O46">
+        <v>-1.0425E-09</v>
+      </c>
+      <c r="P46">
+        <v>-3.9731E-10</v>
+      </c>
+      <c r="Q46">
+        <v>-1.3802E-10</v>
+      </c>
+      <c r="R46">
+        <v>-1.1024E-09</v>
+      </c>
+      <c r="S46">
+        <v>-1.1426E-09</v>
+      </c>
+      <c r="T46">
+        <v>-3.241E-09</v>
+      </c>
+      <c r="U46">
+        <v>-1.8983E-09</v>
+      </c>
+      <c r="V46">
+        <v>-1.0107E-09</v>
+      </c>
+      <c r="W46">
+        <v>-5.5674E-10</v>
+      </c>
+      <c r="X46">
+        <v>-4.8089E-09</v>
+      </c>
+      <c r="Y46">
+        <v>-1.5016E-09</v>
+      </c>
+      <c r="Z46">
+        <v>-3.3162E-09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>-70</v>
+      </c>
+      <c r="B47">
+        <v>-1.749E-09</v>
+      </c>
+      <c r="C47">
+        <v>-5.9262E-10</v>
+      </c>
+      <c r="D47">
+        <v>-1.0634E-09</v>
+      </c>
+      <c r="E47">
+        <v>-5.4992E-09</v>
+      </c>
+      <c r="F47">
+        <v>-1.9554E-09</v>
+      </c>
+      <c r="G47">
+        <v>-1.2374E-09</v>
+      </c>
+      <c r="H47">
+        <v>-5.7533E-09</v>
+      </c>
+      <c r="I47">
+        <v>-1.0168E-09</v>
+      </c>
+      <c r="J47">
+        <v>-1.3013E-09</v>
+      </c>
+      <c r="K47">
+        <v>-2.9319E-09</v>
+      </c>
+      <c r="L47">
+        <v>-1.6591E-09</v>
+      </c>
+      <c r="M47">
+        <v>-1.152E-09</v>
+      </c>
+      <c r="N47">
+        <v>-1.1259E-09</v>
+      </c>
+      <c r="O47">
+        <v>-1.5928E-09</v>
+      </c>
+      <c r="P47">
+        <v>-5.0227E-10</v>
+      </c>
+      <c r="Q47">
+        <v>-1.8258E-10</v>
+      </c>
+      <c r="R47">
+        <v>-1.655E-09</v>
+      </c>
+      <c r="S47">
+        <v>-1.8174E-09</v>
+      </c>
+      <c r="T47">
+        <v>-4.4028E-09</v>
+      </c>
+      <c r="U47">
+        <v>-2.8204E-09</v>
+      </c>
+      <c r="V47">
+        <v>-1.2944E-09</v>
+      </c>
+      <c r="W47">
+        <v>-8.666800000000001E-10</v>
+      </c>
+      <c r="X47">
+        <v>-6.1076E-09</v>
+      </c>
+      <c r="Y47">
+        <v>-2.4734E-09</v>
+      </c>
+      <c r="Z47">
+        <v>-4.9396E-09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>-65</v>
+      </c>
+      <c r="B48">
+        <v>-3.0208E-09</v>
+      </c>
+      <c r="C48">
+        <v>-9.2779E-10</v>
+      </c>
+      <c r="D48">
+        <v>-1.5024E-09</v>
+      </c>
+      <c r="E48">
+        <v>-6.9678E-09</v>
+      </c>
+      <c r="F48">
+        <v>-2.4344E-09</v>
+      </c>
+      <c r="G48">
+        <v>-1.6079E-09</v>
+      </c>
+      <c r="H48">
+        <v>-7.762100000000001E-09</v>
+      </c>
+      <c r="I48">
+        <v>-1.3786E-09</v>
+      </c>
+      <c r="J48">
+        <v>-1.9387E-09</v>
+      </c>
+      <c r="K48">
+        <v>-4.0761E-09</v>
+      </c>
+      <c r="L48">
+        <v>-1.9791E-09</v>
+      </c>
+      <c r="M48">
+        <v>-1.9432E-09</v>
+      </c>
+      <c r="N48">
+        <v>-1.4394E-09</v>
+      </c>
+      <c r="O48">
+        <v>-2.2862E-09</v>
+      </c>
+      <c r="P48">
+        <v>-7.3211E-10</v>
+      </c>
+      <c r="Q48">
+        <v>-2.7436E-10</v>
+      </c>
+      <c r="R48">
+        <v>-2.4253E-09</v>
+      </c>
+      <c r="S48">
+        <v>-2.5553E-09</v>
+      </c>
+      <c r="T48">
+        <v>-5.5302E-09</v>
+      </c>
+      <c r="U48">
+        <v>-3.9016E-09</v>
+      </c>
+      <c r="V48">
+        <v>-1.7748E-09</v>
+      </c>
+      <c r="W48">
+        <v>-1.1569E-09</v>
+      </c>
+      <c r="X48">
+        <v>-8.0722E-09</v>
+      </c>
+      <c r="Y48">
+        <v>-3.6351E-09</v>
+      </c>
+      <c r="Z48">
+        <v>-6.8319E-09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>-60</v>
+      </c>
+      <c r="B49">
+        <v>-4.775E-09</v>
+      </c>
+      <c r="C49">
+        <v>-1.4473E-09</v>
+      </c>
+      <c r="D49">
+        <v>-2.2648E-09</v>
+      </c>
+      <c r="E49">
+        <v>-7.991E-09</v>
+      </c>
+      <c r="F49">
+        <v>-2.684E-09</v>
+      </c>
+      <c r="G49">
+        <v>-1.847E-09</v>
+      </c>
+      <c r="H49">
+        <v>-1.1177E-08</v>
+      </c>
+      <c r="I49">
+        <v>-1.7026E-09</v>
+      </c>
+      <c r="J49">
+        <v>-2.5324E-09</v>
+      </c>
+      <c r="K49">
+        <v>-5.3495E-09</v>
+      </c>
+      <c r="L49">
+        <v>-2.3304E-09</v>
+      </c>
+      <c r="M49">
+        <v>-2.9446E-09</v>
+      </c>
+      <c r="N49">
+        <v>-1.7973E-09</v>
+      </c>
+      <c r="O49">
+        <v>-3.0485E-09</v>
+      </c>
+      <c r="P49">
+        <v>-9.4727E-10</v>
+      </c>
+      <c r="Q49">
+        <v>-4.2038E-10</v>
+      </c>
+      <c r="R49">
+        <v>-3.2471E-09</v>
+      </c>
+      <c r="S49">
+        <v>-3.4441E-09</v>
+      </c>
+      <c r="T49">
+        <v>-6.4308E-09</v>
+      </c>
+      <c r="U49">
+        <v>-4.8889E-09</v>
+      </c>
+      <c r="V49">
+        <v>-2.1709E-09</v>
+      </c>
+      <c r="W49">
+        <v>-1.471E-09</v>
+      </c>
+      <c r="X49">
+        <v>-1.0047E-08</v>
+      </c>
+      <c r="Y49">
+        <v>-5.0537E-09</v>
+      </c>
+      <c r="Z49">
+        <v>-8.677499999999999E-09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>-55</v>
+      </c>
+      <c r="B50">
+        <v>-7.0045E-09</v>
+      </c>
+      <c r="C50">
+        <v>-2.2406E-09</v>
+      </c>
+      <c r="D50">
+        <v>-3.5083E-09</v>
+      </c>
+      <c r="E50">
+        <v>-8.545600000000001E-09</v>
+      </c>
+      <c r="F50">
+        <v>-2.7746E-09</v>
+      </c>
+      <c r="G50">
+        <v>-2.1218E-09</v>
+      </c>
+      <c r="H50">
+        <v>-1.8874E-08</v>
+      </c>
+      <c r="I50">
+        <v>-1.9258E-09</v>
+      </c>
+      <c r="J50">
+        <v>-3.3029E-09</v>
+      </c>
+      <c r="K50">
+        <v>-6.2836E-09</v>
+      </c>
+      <c r="L50">
+        <v>-2.6322E-09</v>
+      </c>
+      <c r="M50">
+        <v>-4.1899E-09</v>
+      </c>
+      <c r="N50">
+        <v>-2.3452E-09</v>
+      </c>
+      <c r="O50">
+        <v>-3.6938E-09</v>
+      </c>
+      <c r="P50">
+        <v>-1.1685E-09</v>
+      </c>
+      <c r="Q50">
+        <v>-6.3568E-10</v>
+      </c>
+      <c r="R50">
+        <v>-3.8324E-09</v>
+      </c>
+      <c r="S50">
+        <v>-4.1166E-09</v>
+      </c>
+      <c r="T50">
+        <v>-6.7093E-09</v>
+      </c>
+      <c r="U50">
+        <v>-5.7212E-09</v>
+      </c>
+      <c r="V50">
+        <v>-2.6052E-09</v>
+      </c>
+      <c r="W50">
+        <v>-1.7665E-09</v>
+      </c>
+      <c r="X50">
+        <v>-1.1875E-08</v>
+      </c>
+      <c r="Y50">
+        <v>-6.1894E-09</v>
+      </c>
+      <c r="Z50">
+        <v>-1.0165E-08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>-50</v>
+      </c>
+      <c r="B51">
+        <v>-9.294E-09</v>
+      </c>
+      <c r="C51">
+        <v>-3.1131E-09</v>
+      </c>
+      <c r="D51">
+        <v>-5.3352E-09</v>
+      </c>
+      <c r="E51">
+        <v>-8.4054E-09</v>
+      </c>
+      <c r="F51">
+        <v>-2.5228E-09</v>
+      </c>
+      <c r="G51">
+        <v>-2.6034E-09</v>
+      </c>
+      <c r="H51">
+        <v>-1.8548E-08</v>
+      </c>
+      <c r="I51">
+        <v>-1.9595E-09</v>
+      </c>
+      <c r="J51">
+        <v>-3.7145E-09</v>
+      </c>
+      <c r="K51">
+        <v>-6.8712E-09</v>
+      </c>
+      <c r="L51">
+        <v>-2.8007E-09</v>
+      </c>
+      <c r="M51">
+        <v>-5.7287E-09</v>
+      </c>
+      <c r="N51">
+        <v>-3.0091E-09</v>
+      </c>
+      <c r="O51">
+        <v>-4.2208E-09</v>
+      </c>
+      <c r="P51">
+        <v>-1.3008E-09</v>
+      </c>
+      <c r="Q51">
+        <v>-8.9444E-10</v>
+      </c>
+      <c r="R51">
+        <v>-4.2095E-09</v>
+      </c>
+      <c r="S51">
+        <v>-4.6175E-09</v>
+      </c>
+      <c r="T51">
+        <v>-6.5028E-09</v>
+      </c>
+      <c r="U51">
+        <v>-6.0146E-09</v>
+      </c>
+      <c r="V51">
+        <v>-2.8789E-09</v>
+      </c>
+      <c r="W51">
+        <v>-1.8739E-09</v>
+      </c>
+      <c r="X51">
+        <v>-1.3266E-08</v>
+      </c>
+      <c r="Y51">
+        <v>-6.6975E-09</v>
+      </c>
+      <c r="Z51">
+        <v>-1.0792E-08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>-45</v>
+      </c>
+      <c r="B52">
+        <v>-1.1334E-08</v>
+      </c>
+      <c r="C52">
+        <v>-3.8864E-09</v>
+      </c>
+      <c r="D52">
+        <v>-7.1275E-09</v>
+      </c>
+      <c r="E52">
+        <v>-7.6517E-09</v>
+      </c>
+      <c r="F52">
+        <v>-2.1753E-09</v>
+      </c>
+      <c r="G52">
+        <v>-3.3439E-09</v>
+      </c>
+      <c r="H52">
+        <v>-1.7599E-08</v>
+      </c>
+      <c r="I52">
+        <v>-1.8875E-09</v>
+      </c>
+      <c r="J52">
+        <v>-3.9188E-09</v>
+      </c>
+      <c r="K52">
+        <v>-6.693E-09</v>
+      </c>
+      <c r="L52">
+        <v>-2.7832E-09</v>
+      </c>
+      <c r="M52">
+        <v>-7.4475E-09</v>
+      </c>
+      <c r="N52">
+        <v>-3.7363E-09</v>
+      </c>
+      <c r="O52">
+        <v>-4.5592E-09</v>
+      </c>
+      <c r="P52">
+        <v>-1.36E-09</v>
+      </c>
+      <c r="Q52">
+        <v>-1.1751E-09</v>
+      </c>
+      <c r="R52">
+        <v>-4.2907E-09</v>
+      </c>
+      <c r="S52">
+        <v>-4.6613E-09</v>
+      </c>
+      <c r="T52">
+        <v>-5.8005E-09</v>
+      </c>
+      <c r="U52">
+        <v>-5.8767E-09</v>
+      </c>
+      <c r="V52">
+        <v>-2.9836E-09</v>
+      </c>
+      <c r="W52">
+        <v>-1.9042E-09</v>
+      </c>
+      <c r="X52">
+        <v>-1.394E-08</v>
+      </c>
+      <c r="Y52">
+        <v>-6.6469E-09</v>
+      </c>
+      <c r="Z52">
+        <v>-1.0694E-08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>-40</v>
+      </c>
+      <c r="B53">
+        <v>-1.2543E-08</v>
+      </c>
+      <c r="C53">
+        <v>-4.4416E-09</v>
+      </c>
+      <c r="D53">
+        <v>-8.291699999999999E-09</v>
+      </c>
+      <c r="E53">
+        <v>-6.6982E-09</v>
+      </c>
+      <c r="F53">
+        <v>-1.7322E-09</v>
+      </c>
+      <c r="G53">
+        <v>-4.3146E-09</v>
+      </c>
+      <c r="H53">
+        <v>-1.6509E-08</v>
+      </c>
+      <c r="I53">
+        <v>-1.7196E-09</v>
+      </c>
+      <c r="J53">
+        <v>-3.8417E-09</v>
+      </c>
+      <c r="K53">
+        <v>-6.1902E-09</v>
+      </c>
+      <c r="L53">
+        <v>-2.726E-09</v>
+      </c>
+      <c r="M53">
+        <v>-8.9305E-09</v>
+      </c>
+      <c r="N53">
+        <v>-4.4112E-09</v>
+      </c>
+      <c r="O53">
+        <v>-4.4789E-09</v>
+      </c>
+      <c r="P53">
+        <v>-1.4079E-09</v>
+      </c>
+      <c r="Q53">
+        <v>-1.4118E-09</v>
+      </c>
+      <c r="R53">
+        <v>-4.0068E-09</v>
+      </c>
+      <c r="S53">
+        <v>-4.495E-09</v>
+      </c>
+      <c r="T53">
+        <v>-4.8562E-09</v>
+      </c>
+      <c r="U53">
+        <v>-5.2947E-09</v>
+      </c>
+      <c r="V53">
+        <v>-2.9941E-09</v>
+      </c>
+      <c r="W53">
+        <v>-1.822E-09</v>
+      </c>
+      <c r="X53">
+        <v>-1.3731E-08</v>
+      </c>
+      <c r="Y53">
+        <v>-5.8622E-09</v>
+      </c>
+      <c r="Z53">
+        <v>-9.758499999999999E-09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>-35</v>
+      </c>
+      <c r="B54">
+        <v>-1.2605E-08</v>
+      </c>
+      <c r="C54">
+        <v>-4.5679E-09</v>
+      </c>
+      <c r="D54">
+        <v>-8.4219E-09</v>
+      </c>
+      <c r="E54">
+        <v>-5.6257E-09</v>
+      </c>
+      <c r="F54">
+        <v>-1.4044E-09</v>
+      </c>
+      <c r="G54">
+        <v>-4.9247E-09</v>
+      </c>
+      <c r="H54">
+        <v>-1.5514E-08</v>
+      </c>
+      <c r="I54">
+        <v>-1.5223E-09</v>
+      </c>
+      <c r="J54">
+        <v>-3.5775E-09</v>
+      </c>
+      <c r="K54">
+        <v>-5.715E-09</v>
+      </c>
+      <c r="L54">
+        <v>-2.4486E-09</v>
+      </c>
+      <c r="M54">
+        <v>-9.479E-09</v>
+      </c>
+      <c r="N54">
+        <v>-4.7588E-09</v>
+      </c>
+      <c r="O54">
+        <v>-4.1491E-09</v>
+      </c>
+      <c r="P54">
+        <v>-1.2615E-09</v>
+      </c>
+      <c r="Q54">
+        <v>-1.4381E-09</v>
+      </c>
+      <c r="R54">
+        <v>-3.4921E-09</v>
+      </c>
+      <c r="S54">
+        <v>-4.0167E-09</v>
+      </c>
+      <c r="T54">
+        <v>-3.9223E-09</v>
+      </c>
+      <c r="U54">
+        <v>-4.4428E-09</v>
+      </c>
+      <c r="V54">
+        <v>-2.7557E-09</v>
+      </c>
+      <c r="W54">
+        <v>-1.6641E-09</v>
+      </c>
+      <c r="X54">
+        <v>-1.3121E-08</v>
+      </c>
+      <c r="Y54">
+        <v>-4.9125E-09</v>
+      </c>
+      <c r="Z54">
+        <v>-8.436100000000001E-09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>-30</v>
+      </c>
+      <c r="B55">
+        <v>-1.194E-08</v>
+      </c>
+      <c r="C55">
+        <v>-4.1801E-09</v>
+      </c>
+      <c r="D55">
+        <v>-7.902E-09</v>
+      </c>
+      <c r="E55">
+        <v>-4.7239E-09</v>
+      </c>
+      <c r="F55">
+        <v>-1.0081E-09</v>
+      </c>
+      <c r="G55">
+        <v>-5.5079E-09</v>
+      </c>
+      <c r="H55">
+        <v>-1.4274E-08</v>
+      </c>
+      <c r="I55">
+        <v>-1.303E-09</v>
+      </c>
+      <c r="J55">
+        <v>-3.0697E-09</v>
+      </c>
+      <c r="K55">
+        <v>-4.8763E-09</v>
+      </c>
+      <c r="L55">
+        <v>-2.2063E-09</v>
+      </c>
+      <c r="M55">
+        <v>-9.317999999999999E-09</v>
+      </c>
+      <c r="N55">
+        <v>-4.8879E-09</v>
+      </c>
+      <c r="O55">
+        <v>-3.5588E-09</v>
+      </c>
+      <c r="P55">
+        <v>-1.1011E-09</v>
+      </c>
+      <c r="Q55">
+        <v>-1.4793E-09</v>
+      </c>
+      <c r="R55">
+        <v>-3.0001E-09</v>
+      </c>
+      <c r="S55">
+        <v>-3.4478E-09</v>
+      </c>
+      <c r="T55">
+        <v>-3.0786E-09</v>
+      </c>
+      <c r="U55">
+        <v>-3.7053E-09</v>
+      </c>
+      <c r="V55">
+        <v>-2.5326E-09</v>
+      </c>
+      <c r="W55">
+        <v>-1.4809E-09</v>
+      </c>
+      <c r="X55">
+        <v>-1.175E-08</v>
+      </c>
+      <c r="Y55">
+        <v>-3.8481E-09</v>
+      </c>
+      <c r="Z55">
+        <v>-7.0599E-09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>-25</v>
+      </c>
+      <c r="B56">
+        <v>-1.0463E-08</v>
+      </c>
+      <c r="C56">
+        <v>-3.6608E-09</v>
+      </c>
+      <c r="D56">
+        <v>-6.9837E-09</v>
+      </c>
+      <c r="E56">
+        <v>-3.9273E-09</v>
+      </c>
+      <c r="F56">
+        <v>-7.9586E-10</v>
+      </c>
+      <c r="G56">
+        <v>-5.7435E-09</v>
+      </c>
+      <c r="H56">
+        <v>-1.2504E-08</v>
+      </c>
+      <c r="I56">
+        <v>-1.1436E-09</v>
+      </c>
+      <c r="J56">
+        <v>-2.8201E-09</v>
+      </c>
+      <c r="K56">
+        <v>-4.2223E-09</v>
+      </c>
+      <c r="L56">
+        <v>-2.0148E-09</v>
+      </c>
+      <c r="M56">
+        <v>-8.7038E-09</v>
+      </c>
+      <c r="N56">
+        <v>-4.7336E-09</v>
+      </c>
+      <c r="O56">
+        <v>-3.0294E-09</v>
+      </c>
+      <c r="P56">
+        <v>-9.486E-10</v>
+      </c>
+      <c r="Q56">
+        <v>-1.3885E-09</v>
+      </c>
+      <c r="R56">
+        <v>-2.4504E-09</v>
+      </c>
+      <c r="S56">
+        <v>-2.9086E-09</v>
+      </c>
+      <c r="T56">
+        <v>-2.4595E-09</v>
+      </c>
+      <c r="U56">
+        <v>-2.9672E-09</v>
+      </c>
+      <c r="V56">
+        <v>-2.2128E-09</v>
+      </c>
+      <c r="W56">
+        <v>-1.2713E-09</v>
+      </c>
+      <c r="X56">
+        <v>-1.0033E-08</v>
+      </c>
+      <c r="Y56">
+        <v>-2.9283E-09</v>
+      </c>
+      <c r="Z56">
+        <v>-5.5988E-09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>-20</v>
+      </c>
+      <c r="B57">
+        <v>-8.884800000000001E-09</v>
+      </c>
+      <c r="C57">
+        <v>-3.0513E-09</v>
+      </c>
+      <c r="D57">
+        <v>-5.9109E-09</v>
+      </c>
+      <c r="E57">
+        <v>-3.1693E-09</v>
+      </c>
+      <c r="F57">
+        <v>-6.039599999999999E-10</v>
+      </c>
+      <c r="G57">
+        <v>-5.704E-09</v>
+      </c>
+      <c r="H57">
+        <v>-1.0843E-08</v>
+      </c>
+      <c r="I57">
+        <v>-9.359599999999999E-10</v>
+      </c>
+      <c r="J57">
+        <v>-2.395E-09</v>
+      </c>
+      <c r="K57">
+        <v>-3.5449E-09</v>
+      </c>
+      <c r="L57">
+        <v>-1.8011E-09</v>
+      </c>
+      <c r="M57">
+        <v>-7.6681E-09</v>
+      </c>
+      <c r="N57">
+        <v>-4.5481E-09</v>
+      </c>
+      <c r="O57">
+        <v>-2.5151E-09</v>
+      </c>
+      <c r="P57">
+        <v>-7.6358E-10</v>
+      </c>
+      <c r="Q57">
+        <v>-1.2262E-09</v>
+      </c>
+      <c r="R57">
+        <v>-2.0496E-09</v>
+      </c>
+      <c r="S57">
+        <v>-2.3884E-09</v>
+      </c>
+      <c r="T57">
+        <v>-1.9074E-09</v>
+      </c>
+      <c r="U57">
+        <v>-2.4155E-09</v>
+      </c>
+      <c r="V57">
+        <v>-1.9757E-09</v>
+      </c>
+      <c r="W57">
+        <v>-1.0536E-09</v>
+      </c>
+      <c r="X57">
+        <v>-8.6159E-09</v>
+      </c>
+      <c r="Y57">
+        <v>-2.2989E-09</v>
+      </c>
+      <c r="Z57">
+        <v>-4.5207E-09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>-15</v>
+      </c>
+      <c r="B58">
+        <v>-7.3114E-09</v>
+      </c>
+      <c r="C58">
+        <v>-2.594E-09</v>
+      </c>
+      <c r="D58">
+        <v>-4.8712E-09</v>
+      </c>
+      <c r="E58">
+        <v>-2.5626E-09</v>
+      </c>
+      <c r="F58">
+        <v>-4.4919E-10</v>
+      </c>
+      <c r="G58">
+        <v>-5.5582E-09</v>
+      </c>
+      <c r="H58">
+        <v>-9.4611E-09</v>
+      </c>
+      <c r="I58">
+        <v>-8.4639E-10</v>
+      </c>
+      <c r="J58">
+        <v>-2.0594E-09</v>
+      </c>
+      <c r="K58">
+        <v>-3.0099E-09</v>
+      </c>
+      <c r="L58">
+        <v>-1.6078E-09</v>
+      </c>
+      <c r="M58">
+        <v>-6.686E-09</v>
+      </c>
+      <c r="N58">
+        <v>-4.1174E-09</v>
+      </c>
+      <c r="O58">
+        <v>-2.067E-09</v>
+      </c>
+      <c r="P58">
+        <v>-6.1014E-10</v>
+      </c>
+      <c r="Q58">
+        <v>-1.0741E-09</v>
+      </c>
+      <c r="R58">
+        <v>-1.6481E-09</v>
+      </c>
+      <c r="S58">
+        <v>-1.9747E-09</v>
+      </c>
+      <c r="T58">
+        <v>-1.5084E-09</v>
+      </c>
+      <c r="U58">
+        <v>-2.0047E-09</v>
+      </c>
+      <c r="V58">
+        <v>-1.7039E-09</v>
+      </c>
+      <c r="W58">
+        <v>-8.506E-10</v>
+      </c>
+      <c r="X58">
+        <v>-7.3514E-09</v>
+      </c>
+      <c r="Y58">
+        <v>-1.7661E-09</v>
+      </c>
+      <c r="Z58">
+        <v>-3.6273E-09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>-10</v>
+      </c>
+      <c r="B59">
+        <v>-5.9151E-09</v>
+      </c>
+      <c r="C59">
+        <v>-2.1269E-09</v>
+      </c>
+      <c r="D59">
+        <v>-3.9929E-09</v>
+      </c>
+      <c r="E59">
+        <v>-2.0781E-09</v>
+      </c>
+      <c r="F59">
+        <v>-3.0865E-10</v>
+      </c>
+      <c r="G59">
+        <v>-5.518E-09</v>
+      </c>
+      <c r="H59">
+        <v>-8.1091E-09</v>
+      </c>
+      <c r="I59">
+        <v>-6.427E-10</v>
+      </c>
+      <c r="J59">
+        <v>-1.7641E-09</v>
+      </c>
+      <c r="K59">
+        <v>-2.4836E-09</v>
+      </c>
+      <c r="L59">
+        <v>-1.4175E-09</v>
+      </c>
+      <c r="M59">
+        <v>-5.7375E-09</v>
+      </c>
+      <c r="N59">
+        <v>-3.7388E-09</v>
+      </c>
+      <c r="O59">
+        <v>-1.6735E-09</v>
+      </c>
+      <c r="P59">
+        <v>-5.6111E-10</v>
+      </c>
+      <c r="Q59">
+        <v>-9.788E-10</v>
+      </c>
+      <c r="R59">
+        <v>-1.4013E-09</v>
+      </c>
+      <c r="S59">
+        <v>-1.6606E-09</v>
+      </c>
+      <c r="T59">
+        <v>-1.1763E-09</v>
+      </c>
+      <c r="U59">
+        <v>-1.6468E-09</v>
+      </c>
+      <c r="V59">
+        <v>-1.4913E-09</v>
+      </c>
+      <c r="W59">
+        <v>-7.5169E-10</v>
+      </c>
+      <c r="X59">
+        <v>-6.1225E-09</v>
+      </c>
+      <c r="Y59">
+        <v>-1.4154E-09</v>
+      </c>
+      <c r="Z59">
+        <v>-2.9619E-09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>-5</v>
+      </c>
+      <c r="B60">
+        <v>-4.7341E-09</v>
+      </c>
+      <c r="C60">
+        <v>-1.7639E-09</v>
+      </c>
+      <c r="D60">
+        <v>-3.3044E-09</v>
+      </c>
+      <c r="E60">
+        <v>-1.6892E-09</v>
+      </c>
+      <c r="F60">
+        <v>-2.0437E-10</v>
+      </c>
+      <c r="G60">
+        <v>-5.3657E-09</v>
+      </c>
+      <c r="H60">
+        <v>-6.9552E-09</v>
+      </c>
+      <c r="I60">
+        <v>-5.6766E-10</v>
+      </c>
+      <c r="J60">
+        <v>-1.5161E-09</v>
+      </c>
+      <c r="K60">
+        <v>-2.102E-09</v>
+      </c>
+      <c r="L60">
+        <v>-1.2605E-09</v>
+      </c>
+      <c r="M60">
+        <v>-4.8899E-09</v>
+      </c>
+      <c r="N60">
+        <v>-3.4377E-09</v>
+      </c>
+      <c r="O60">
+        <v>-1.3929E-09</v>
+      </c>
+      <c r="P60">
+        <v>-4.1638E-10</v>
+      </c>
+      <c r="Q60">
+        <v>-8.5435E-10</v>
+      </c>
+      <c r="R60">
+        <v>-1.1068E-09</v>
+      </c>
+      <c r="S60">
+        <v>-1.3784E-09</v>
+      </c>
+      <c r="T60">
+        <v>-8.8669E-10</v>
+      </c>
+      <c r="U60">
+        <v>-1.3039E-09</v>
+      </c>
+      <c r="V60">
+        <v>-1.3274E-09</v>
+      </c>
+      <c r="W60">
+        <v>-6.1792E-10</v>
+      </c>
+      <c r="X60">
+        <v>-5.2361E-09</v>
+      </c>
+      <c r="Y60">
+        <v>-1.0743E-09</v>
+      </c>
+      <c r="Z60">
+        <v>-2.3636E-09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>-3.7585E-09</v>
+      </c>
+      <c r="C61">
+        <v>-1.449E-09</v>
+      </c>
+      <c r="D61">
+        <v>-2.7611E-09</v>
+      </c>
+      <c r="E61">
+        <v>-1.3049E-09</v>
+      </c>
+      <c r="F61">
+        <v>-1.6515E-10</v>
+      </c>
+      <c r="G61">
+        <v>-5.0923E-09</v>
+      </c>
+      <c r="H61">
+        <v>-6.0429E-09</v>
+      </c>
+      <c r="I61">
+        <v>-4.245E-10</v>
+      </c>
+      <c r="J61">
+        <v>-1.231E-09</v>
+      </c>
+      <c r="K61">
+        <v>-1.7746E-09</v>
+      </c>
+      <c r="L61">
+        <v>-1.104E-09</v>
+      </c>
+      <c r="M61">
+        <v>-4.1866E-09</v>
+      </c>
+      <c r="N61">
+        <v>-3.042E-09</v>
+      </c>
+      <c r="O61">
+        <v>-1.1757E-09</v>
+      </c>
+      <c r="P61">
+        <v>-2.5973E-10</v>
+      </c>
+      <c r="Q61">
+        <v>-7.1248E-10</v>
+      </c>
+      <c r="R61">
+        <v>-9.2196E-10</v>
+      </c>
+      <c r="S61">
+        <v>-1.1335E-09</v>
+      </c>
+      <c r="T61">
+        <v>-6.7208E-10</v>
+      </c>
+      <c r="U61">
+        <v>-1.0945E-09</v>
+      </c>
+      <c r="V61">
+        <v>-1.1179E-09</v>
+      </c>
+      <c r="W61">
+        <v>-5.5666E-10</v>
+      </c>
+      <c r="X61">
+        <v>-4.4383E-09</v>
+      </c>
+      <c r="Y61">
+        <v>-8.005E-10</v>
+      </c>
+      <c r="Z61">
+        <v>-1.8943E-09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>-2.9195E-09</v>
+      </c>
+      <c r="C62">
+        <v>-1.1796E-09</v>
+      </c>
+      <c r="D62">
+        <v>-2.2444E-09</v>
+      </c>
+      <c r="E62">
+        <v>-1.0352E-09</v>
+      </c>
+      <c r="F62">
+        <v>-9.276E-11</v>
+      </c>
+      <c r="G62">
+        <v>-4.7835E-09</v>
+      </c>
+      <c r="H62">
+        <v>-5.073E-09</v>
+      </c>
+      <c r="I62">
+        <v>-3.8729E-10</v>
+      </c>
+      <c r="J62">
+        <v>-1.077E-09</v>
+      </c>
+      <c r="K62">
+        <v>-1.5101E-09</v>
+      </c>
+      <c r="L62">
+        <v>-9.429200000000001E-10</v>
+      </c>
+      <c r="M62">
+        <v>-3.6284E-09</v>
+      </c>
+      <c r="N62">
+        <v>-2.7681E-09</v>
+      </c>
+      <c r="O62">
+        <v>-1.0285E-09</v>
+      </c>
+      <c r="P62">
+        <v>-1.5046E-10</v>
+      </c>
+      <c r="Q62">
+        <v>-6.6856E-10</v>
+      </c>
+      <c r="R62">
+        <v>-7.3068E-10</v>
+      </c>
+      <c r="S62">
+        <v>-9.4985E-10</v>
+      </c>
+      <c r="T62">
+        <v>-4.7394E-10</v>
+      </c>
+      <c r="U62">
+        <v>-9.1419E-10</v>
+      </c>
+      <c r="V62">
+        <v>-9.718200000000001E-10</v>
+      </c>
+      <c r="W62">
+        <v>-4.0247E-10</v>
+      </c>
+      <c r="X62">
+        <v>-3.6962E-09</v>
+      </c>
+      <c r="Y62">
+        <v>-6.4517E-10</v>
+      </c>
+      <c r="Z62">
+        <v>-1.5337E-09</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>-2.157E-09</v>
+      </c>
+      <c r="C63">
+        <v>-9.5033E-10</v>
+      </c>
+      <c r="D63">
+        <v>-1.8476E-09</v>
+      </c>
+      <c r="E63">
+        <v>-8.066800000000001E-10</v>
+      </c>
+      <c r="F63">
+        <v>-3.0656E-11</v>
+      </c>
+      <c r="G63">
+        <v>-4.3049E-09</v>
+      </c>
+      <c r="H63">
+        <v>-4.1965E-09</v>
+      </c>
+      <c r="I63">
+        <v>-2.9024E-10</v>
+      </c>
+      <c r="J63">
+        <v>-7.9085E-10</v>
+      </c>
+      <c r="K63">
+        <v>-1.1797E-09</v>
+      </c>
+      <c r="L63">
+        <v>-8.2596E-10</v>
+      </c>
+      <c r="M63">
+        <v>-3.0304E-09</v>
+      </c>
+      <c r="N63">
+        <v>-2.4913E-09</v>
+      </c>
+      <c r="O63">
+        <v>-8.2952E-10</v>
+      </c>
+      <c r="P63">
+        <v>-2.5021E-11</v>
+      </c>
+      <c r="Q63">
+        <v>-6.0343E-10</v>
+      </c>
+      <c r="R63">
+        <v>-5.8381E-10</v>
+      </c>
+      <c r="S63">
+        <v>-7.997E-10</v>
+      </c>
+      <c r="T63">
+        <v>-3.1184E-10</v>
+      </c>
+      <c r="U63">
+        <v>-6.7879E-10</v>
+      </c>
+      <c r="V63">
+        <v>-8.5346E-10</v>
+      </c>
+      <c r="W63">
+        <v>-3.296E-10</v>
+      </c>
+      <c r="X63">
+        <v>-3.0598E-09</v>
+      </c>
+      <c r="Y63">
+        <v>-4.1189E-10</v>
+      </c>
+      <c r="Z63">
+        <v>-1.1471E-09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>-1.5361E-09</v>
+      </c>
+      <c r="C64">
+        <v>-7.9773E-10</v>
+      </c>
+      <c r="D64">
+        <v>-1.4345E-09</v>
+      </c>
+      <c r="E64">
+        <v>-6.249200000000001E-10</v>
+      </c>
+      <c r="F64">
+        <v>-1.4198E-11</v>
+      </c>
+      <c r="G64">
+        <v>-3.7646E-09</v>
+      </c>
+      <c r="H64">
+        <v>-3.4252E-09</v>
+      </c>
+      <c r="I64">
+        <v>-2.1226E-10</v>
+      </c>
+      <c r="J64">
+        <v>-6.7665E-10</v>
+      </c>
+      <c r="K64">
+        <v>-9.31E-10</v>
+      </c>
+      <c r="L64">
+        <v>-6.7208E-10</v>
+      </c>
+      <c r="M64">
+        <v>-2.6047E-09</v>
+      </c>
+      <c r="N64">
+        <v>-2.1969E-09</v>
+      </c>
+      <c r="O64">
+        <v>-6.5382E-10</v>
+      </c>
+      <c r="P64">
+        <v>-2.3552E-11</v>
+      </c>
+      <c r="Q64">
+        <v>-5.2452E-10</v>
+      </c>
+      <c r="R64">
+        <v>-4.0548E-10</v>
+      </c>
+      <c r="S64">
+        <v>-6.4831E-10</v>
+      </c>
+      <c r="T64">
+        <v>-1.7818E-10</v>
+      </c>
+      <c r="U64">
+        <v>-5.2365E-10</v>
+      </c>
+      <c r="V64">
+        <v>-7.4784E-10</v>
+      </c>
+      <c r="W64">
+        <v>-2.9691E-10</v>
+      </c>
+      <c r="X64">
+        <v>-2.4607E-09</v>
+      </c>
+      <c r="Y64">
+        <v>-2.5348E-10</v>
+      </c>
+      <c r="Z64">
+        <v>-8.303400000000001E-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>-9.3681E-10</v>
+      </c>
+      <c r="C65">
+        <v>-5.8658E-10</v>
+      </c>
+      <c r="D65">
+        <v>-1.1679E-09</v>
+      </c>
+      <c r="E65">
+        <v>-3.5871E-10</v>
+      </c>
+      <c r="F65">
+        <v>-1.6355E-12</v>
+      </c>
+      <c r="G65">
+        <v>-3.3494E-09</v>
+      </c>
+      <c r="H65">
+        <v>-2.7407E-09</v>
+      </c>
+      <c r="I65">
+        <v>-1.3902E-10</v>
+      </c>
+      <c r="J65">
+        <v>-4.7614E-10</v>
+      </c>
+      <c r="K65">
+        <v>-6.6629E-10</v>
+      </c>
+      <c r="L65">
+        <v>-5.7334E-10</v>
+      </c>
+      <c r="M65">
+        <v>-2.1422E-09</v>
+      </c>
+      <c r="N65">
+        <v>-1.9362E-09</v>
+      </c>
+      <c r="O65">
+        <v>-5.342E-10</v>
+      </c>
+      <c r="P65">
+        <v>1.6344E-11</v>
+      </c>
+      <c r="Q65">
+        <v>-4.0388E-10</v>
+      </c>
+      <c r="R65">
+        <v>-2.8511E-10</v>
+      </c>
+      <c r="S65">
+        <v>-5.3173E-10</v>
+      </c>
+      <c r="T65">
+        <v>-2.9927E-11</v>
+      </c>
+      <c r="U65">
+        <v>-3.6514E-10</v>
+      </c>
+      <c r="V65">
+        <v>-5.9898E-10</v>
+      </c>
+      <c r="W65">
+        <v>-1.6066E-10</v>
+      </c>
+      <c r="X65">
+        <v>-1.892E-09</v>
+      </c>
+      <c r="Y65">
+        <v>-1.2714E-10</v>
+      </c>
+      <c r="Z65">
+        <v>-4.4564E-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66">
         <v>-3.1038E-10</v>
       </c>
-      <c r="C33">
+      <c r="C66">
         <v>-4.3298E-10</v>
       </c>
-      <c r="D33">
+      <c r="D66">
         <v>-8.7759E-10</v>
       </c>
-      <c r="E33">
+      <c r="E66">
         <v>-1.8881E-10</v>
       </c>
-      <c r="F33">
+      <c r="F66">
         <v>1.4579E-13</v>
       </c>
-      <c r="G33">
+      <c r="G66">
         <v>-2.9715E-09</v>
       </c>
-      <c r="H33">
+      <c r="H66">
         <v>-2.002E-09</v>
       </c>
-      <c r="I33">
+      <c r="I66">
         <v>-9.3083E-11</v>
       </c>
-      <c r="J33">
+      <c r="J66">
         <v>-3.0394E-10</v>
       </c>
-      <c r="K33">
+      <c r="K66">
         <v>-3.9693E-10</v>
       </c>
-      <c r="L33">
+      <c r="L66">
         <v>-4.6302E-10</v>
       </c>
-      <c r="M33">
+      <c r="M66">
         <v>-1.7405E-09</v>
       </c>
-      <c r="N33">
+      <c r="N66">
         <v>-1.7636E-09</v>
       </c>
-      <c r="O33">
+      <c r="O66">
         <v>-4.844299999999999E-10</v>
       </c>
-      <c r="P33">
+      <c r="P66">
         <v>-2.0594E-11</v>
       </c>
-      <c r="Q33">
+      <c r="Q66">
         <v>-3.8468E-10</v>
       </c>
-      <c r="R33">
+      <c r="R66">
         <v>-1.2368E-10</v>
       </c>
-      <c r="S33">
+      <c r="S66">
         <v>-4.1385E-10</v>
       </c>
-      <c r="T33">
+      <c r="T66">
         <v>-5.75E-12</v>
       </c>
-      <c r="U33">
+      <c r="U66">
         <v>-2.24E-10</v>
       </c>
-      <c r="V33">
+      <c r="V66">
         <v>-4.9248E-10</v>
       </c>
-      <c r="W33">
+      <c r="W66">
         <v>-1.141E-10</v>
       </c>
-      <c r="X33">
+      <c r="X66">
         <v>-1.3866E-09</v>
       </c>
-      <c r="Y33">
+      <c r="Y66">
         <v>-2.7135E-11</v>
       </c>
-      <c r="Z33">
+      <c r="Z66">
         <v>-2.3904E-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O68" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>44</v>
+      </c>
+      <c r="R68" t="s">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T68" t="s">
+        <v>47</v>
+      </c>
+      <c r="U68" t="s">
+        <v>48</v>
+      </c>
+      <c r="V68" t="s">
+        <v>49</v>
+      </c>
+      <c r="W68" t="s">
+        <v>50</v>
+      </c>
+      <c r="X68" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>-120</v>
+      </c>
+      <c r="B69">
+        <v>-2.2646E-09</v>
+      </c>
+      <c r="C69">
+        <v>-7.0538E-10</v>
+      </c>
+      <c r="D69">
+        <v>-8.7715E-10</v>
+      </c>
+      <c r="E69">
+        <v>-2.1596E-09</v>
+      </c>
+      <c r="F69">
+        <v>-3.3081E-10</v>
+      </c>
+      <c r="G69">
+        <v>-1.2323E-09</v>
+      </c>
+      <c r="H69">
+        <v>-4.8731E-09</v>
+      </c>
+      <c r="I69">
+        <v>-6.2628E-10</v>
+      </c>
+      <c r="J69">
+        <v>-1.2706E-09</v>
+      </c>
+      <c r="K69">
+        <v>-3.1769E-09</v>
+      </c>
+      <c r="L69">
+        <v>-1.3804E-09</v>
+      </c>
+      <c r="M69">
+        <v>-2.816E-09</v>
+      </c>
+      <c r="N69">
+        <v>-1.6114E-09</v>
+      </c>
+      <c r="O69">
+        <v>-7.4229E-10</v>
+      </c>
+      <c r="P69">
+        <v>-2.5891E-10</v>
+      </c>
+      <c r="Q69">
+        <v>-3.8897E-10</v>
+      </c>
+      <c r="R69">
+        <v>-1.0187E-09</v>
+      </c>
+      <c r="S69">
+        <v>-1.313E-09</v>
+      </c>
+      <c r="T69">
+        <v>-1.5917E-09</v>
+      </c>
+      <c r="U69">
+        <v>-1.5584E-09</v>
+      </c>
+      <c r="V69">
+        <v>-1.191E-09</v>
+      </c>
+      <c r="W69">
+        <v>-7.5998E-10</v>
+      </c>
+      <c r="X69">
+        <v>-7.3663E-09</v>
+      </c>
+      <c r="Y69">
+        <v>-1.2158E-09</v>
+      </c>
+      <c r="Z69">
+        <v>-3.4389E-09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>-110</v>
+      </c>
+      <c r="B70">
+        <v>-2.521E-09</v>
+      </c>
+      <c r="C70">
+        <v>-7.594E-10</v>
+      </c>
+      <c r="D70">
+        <v>-1.0677E-09</v>
+      </c>
+      <c r="E70">
+        <v>-2.4227E-09</v>
+      </c>
+      <c r="F70">
+        <v>-5.1716E-10</v>
+      </c>
+      <c r="G70">
+        <v>-1.2908E-09</v>
+      </c>
+      <c r="H70">
+        <v>-5.6196E-09</v>
+      </c>
+      <c r="I70">
+        <v>-7.1948E-10</v>
+      </c>
+      <c r="J70">
+        <v>-1.4365E-09</v>
+      </c>
+      <c r="K70">
+        <v>-3.2338E-09</v>
+      </c>
+      <c r="L70">
+        <v>-1.4952E-09</v>
+      </c>
+      <c r="M70">
+        <v>-2.9393E-09</v>
+      </c>
+      <c r="N70">
+        <v>-1.6539E-09</v>
+      </c>
+      <c r="O70">
+        <v>-8.6605E-10</v>
+      </c>
+      <c r="P70">
+        <v>-3.6514E-10</v>
+      </c>
+      <c r="Q70">
+        <v>-4.5694E-10</v>
+      </c>
+      <c r="R70">
+        <v>-1.1707E-09</v>
+      </c>
+      <c r="S70">
+        <v>-1.4672E-09</v>
+      </c>
+      <c r="T70">
+        <v>-1.7049E-09</v>
+      </c>
+      <c r="U70">
+        <v>-1.6817E-09</v>
+      </c>
+      <c r="V70">
+        <v>-1.3014E-09</v>
+      </c>
+      <c r="W70">
+        <v>-7.4224E-10</v>
+      </c>
+      <c r="X70">
+        <v>-7.4867E-09</v>
+      </c>
+      <c r="Y70">
+        <v>-1.2624E-09</v>
+      </c>
+      <c r="Z70">
+        <v>-3.6347E-09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>-100</v>
+      </c>
+      <c r="B71">
+        <v>-2.7565E-09</v>
+      </c>
+      <c r="C71">
+        <v>-8.5492E-10</v>
+      </c>
+      <c r="D71">
+        <v>-1.182E-09</v>
+      </c>
+      <c r="E71">
+        <v>-2.6562E-09</v>
+      </c>
+      <c r="F71">
+        <v>-4.9753E-10</v>
+      </c>
+      <c r="G71">
+        <v>-1.4654E-09</v>
+      </c>
+      <c r="H71">
+        <v>-5.8343E-09</v>
+      </c>
+      <c r="I71">
+        <v>-7.2129E-10</v>
+      </c>
+      <c r="J71">
+        <v>-1.4292E-09</v>
+      </c>
+      <c r="K71">
+        <v>-3.2401E-09</v>
+      </c>
+      <c r="L71">
+        <v>-1.6852E-09</v>
+      </c>
+      <c r="M71">
+        <v>-3.0677E-09</v>
+      </c>
+      <c r="N71">
+        <v>-1.7002E-09</v>
+      </c>
+      <c r="O71">
+        <v>-9.761699999999999E-10</v>
+      </c>
+      <c r="P71">
+        <v>-3.0661E-10</v>
+      </c>
+      <c r="Q71">
+        <v>-4.5608E-10</v>
+      </c>
+      <c r="R71">
+        <v>-1.3688E-09</v>
+      </c>
+      <c r="S71">
+        <v>-1.6035E-09</v>
+      </c>
+      <c r="T71">
+        <v>-2.0064E-09</v>
+      </c>
+      <c r="U71">
+        <v>-1.7314E-09</v>
+      </c>
+      <c r="V71">
+        <v>-1.4006E-09</v>
+      </c>
+      <c r="W71">
+        <v>-7.4505E-10</v>
+      </c>
+      <c r="X71">
+        <v>-8.1161E-09</v>
+      </c>
+      <c r="Y71">
+        <v>-1.372E-09</v>
+      </c>
+      <c r="Z71">
+        <v>-4.0468E-09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>-90</v>
+      </c>
+      <c r="B72">
+        <v>-3.0239E-09</v>
+      </c>
+      <c r="C72">
+        <v>-9.0763E-10</v>
+      </c>
+      <c r="D72">
+        <v>-1.3439E-09</v>
+      </c>
+      <c r="E72">
+        <v>-2.848E-09</v>
+      </c>
+      <c r="F72">
+        <v>-4.3346E-10</v>
+      </c>
+      <c r="G72">
+        <v>-1.556E-09</v>
+      </c>
+      <c r="H72">
+        <v>-6.1536E-09</v>
+      </c>
+      <c r="I72">
+        <v>-7.4176E-10</v>
+      </c>
+      <c r="J72">
+        <v>-1.5756E-09</v>
+      </c>
+      <c r="K72">
+        <v>-3.5865E-09</v>
+      </c>
+      <c r="L72">
+        <v>-1.8196E-09</v>
+      </c>
+      <c r="M72">
+        <v>-3.4474E-09</v>
+      </c>
+      <c r="N72">
+        <v>-1.939E-09</v>
+      </c>
+      <c r="O72">
+        <v>-1.1256E-09</v>
+      </c>
+      <c r="P72">
+        <v>-4.3569E-10</v>
+      </c>
+      <c r="Q72">
+        <v>-5.159E-10</v>
+      </c>
+      <c r="R72">
+        <v>-1.4389E-09</v>
+      </c>
+      <c r="S72">
+        <v>-1.6681E-09</v>
+      </c>
+      <c r="T72">
+        <v>-2.0934E-09</v>
+      </c>
+      <c r="U72">
+        <v>-1.8587E-09</v>
+      </c>
+      <c r="V72">
+        <v>-1.5466E-09</v>
+      </c>
+      <c r="W72">
+        <v>-7.0546E-10</v>
+      </c>
+      <c r="X72">
+        <v>-8.477400000000001E-09</v>
+      </c>
+      <c r="Y72">
+        <v>-1.5861E-09</v>
+      </c>
+      <c r="Z72">
+        <v>-4.3114E-09</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>-80</v>
+      </c>
+      <c r="B73">
+        <v>-3.9473E-09</v>
+      </c>
+      <c r="C73">
+        <v>-1.1502E-09</v>
+      </c>
+      <c r="D73">
+        <v>-1.6129E-09</v>
+      </c>
+      <c r="E73">
+        <v>-3.1431E-09</v>
+      </c>
+      <c r="F73">
+        <v>-4.7069E-10</v>
+      </c>
+      <c r="G73">
+        <v>-1.8006E-09</v>
+      </c>
+      <c r="H73">
+        <v>-6.8233E-09</v>
+      </c>
+      <c r="I73">
+        <v>-8.2099E-10</v>
+      </c>
+      <c r="J73">
+        <v>-1.7416E-09</v>
+      </c>
+      <c r="K73">
+        <v>-3.9083E-09</v>
+      </c>
+      <c r="L73">
+        <v>-1.7807E-09</v>
+      </c>
+      <c r="M73">
+        <v>-4.03E-09</v>
+      </c>
+      <c r="N73">
+        <v>-2.0775E-09</v>
+      </c>
+      <c r="O73">
+        <v>-1.2752E-09</v>
+      </c>
+      <c r="P73">
+        <v>-4.885E-10</v>
+      </c>
+      <c r="Q73">
+        <v>-5.663E-10</v>
+      </c>
+      <c r="R73">
+        <v>-1.6248E-09</v>
+      </c>
+      <c r="S73">
+        <v>-2.0096E-09</v>
+      </c>
+      <c r="T73">
+        <v>-2.2413E-09</v>
+      </c>
+      <c r="U73">
+        <v>-2.1341E-09</v>
+      </c>
+      <c r="V73">
+        <v>-1.6395E-09</v>
+      </c>
+      <c r="W73">
+        <v>-7.7616E-10</v>
+      </c>
+      <c r="X73">
+        <v>-8.741100000000001E-09</v>
+      </c>
+      <c r="Y73">
+        <v>-1.8129E-09</v>
+      </c>
+      <c r="Z73">
+        <v>-4.5938E-09</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>-70</v>
+      </c>
+      <c r="B74">
+        <v>-5.0935E-09</v>
+      </c>
+      <c r="C74">
+        <v>-1.5929E-09</v>
+      </c>
+      <c r="D74">
+        <v>-2.0993E-09</v>
+      </c>
+      <c r="E74">
+        <v>-2.9085E-09</v>
+      </c>
+      <c r="F74">
+        <v>-3.9731E-10</v>
+      </c>
+      <c r="G74">
+        <v>-2.0393E-09</v>
+      </c>
+      <c r="H74">
+        <v>-8.119299999999999E-09</v>
+      </c>
+      <c r="I74">
+        <v>-7.229E-10</v>
+      </c>
+      <c r="J74">
+        <v>-1.9683E-09</v>
+      </c>
+      <c r="K74">
+        <v>-4.1947E-09</v>
+      </c>
+      <c r="L74">
+        <v>-1.6593E-09</v>
+      </c>
+      <c r="M74">
+        <v>-4.8252E-09</v>
+      </c>
+      <c r="N74">
+        <v>-2.2019E-09</v>
+      </c>
+      <c r="O74">
+        <v>-1.5655E-09</v>
+      </c>
+      <c r="P74">
+        <v>-4.8236E-10</v>
+      </c>
+      <c r="Q74">
+        <v>-6.3995E-10</v>
+      </c>
+      <c r="R74">
+        <v>-1.7368E-09</v>
+      </c>
+      <c r="S74">
+        <v>-2.1516E-09</v>
+      </c>
+      <c r="T74">
+        <v>-2.1012E-09</v>
+      </c>
+      <c r="U74">
+        <v>-2.2042E-09</v>
+      </c>
+      <c r="V74">
+        <v>-1.6664E-09</v>
+      </c>
+      <c r="W74">
+        <v>-6.8443E-10</v>
+      </c>
+      <c r="X74">
+        <v>-8.401899999999999E-09</v>
+      </c>
+      <c r="Y74">
+        <v>-2.1154E-09</v>
+      </c>
+      <c r="Z74">
+        <v>-4.6597E-09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>-60</v>
+      </c>
+      <c r="B75">
+        <v>-6.637E-09</v>
+      </c>
+      <c r="C75">
+        <v>-2.0577E-09</v>
+      </c>
+      <c r="D75">
+        <v>-3.1511E-09</v>
+      </c>
+      <c r="E75">
+        <v>-2.1026E-09</v>
+      </c>
+      <c r="F75">
+        <v>3.2313E-11</v>
+      </c>
+      <c r="G75">
+        <v>-2.4004E-09</v>
+      </c>
+      <c r="H75">
+        <v>-9.314599999999999E-09</v>
+      </c>
+      <c r="I75">
+        <v>-5.0415E-10</v>
+      </c>
+      <c r="J75">
+        <v>-2.0031E-09</v>
+      </c>
+      <c r="K75">
+        <v>-3.4876E-09</v>
+      </c>
+      <c r="L75">
+        <v>-1.2909E-09</v>
+      </c>
+      <c r="M75">
+        <v>-6.2404E-09</v>
+      </c>
+      <c r="N75">
+        <v>-2.59E-09</v>
+      </c>
+      <c r="O75">
+        <v>-1.6736E-09</v>
+      </c>
+      <c r="P75">
+        <v>-5.2315E-10</v>
+      </c>
+      <c r="Q75">
+        <v>-7.8324E-10</v>
+      </c>
+      <c r="R75">
+        <v>-1.3273E-09</v>
+      </c>
+      <c r="S75">
+        <v>-1.9592E-09</v>
+      </c>
+      <c r="T75">
+        <v>-1.4611E-09</v>
+      </c>
+      <c r="U75">
+        <v>-1.7464E-09</v>
+      </c>
+      <c r="V75">
+        <v>-1.3343E-09</v>
+      </c>
+      <c r="W75">
+        <v>-4.6005E-10</v>
+      </c>
+      <c r="X75">
+        <v>-6.8693E-09</v>
+      </c>
+      <c r="Y75">
+        <v>-1.8791E-09</v>
+      </c>
+      <c r="Z75">
+        <v>-3.5732E-09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>-50</v>
+      </c>
+      <c r="B76">
+        <v>-6.9507E-09</v>
+      </c>
+      <c r="C76">
+        <v>-2.0092E-09</v>
+      </c>
+      <c r="D76">
+        <v>-3.824E-09</v>
+      </c>
+      <c r="E76">
+        <v>-5.6791E-10</v>
+      </c>
+      <c r="F76">
+        <v>3.1196E-10</v>
+      </c>
+      <c r="G76">
+        <v>-3.1407E-09</v>
+      </c>
+      <c r="H76">
+        <v>-5.4018E-09</v>
+      </c>
+      <c r="I76">
+        <v>-1.0095E-10</v>
+      </c>
+      <c r="J76">
+        <v>-9.298500000000001E-10</v>
+      </c>
+      <c r="K76">
+        <v>-1.0249E-09</v>
+      </c>
+      <c r="L76">
+        <v>-6.1086E-10</v>
+      </c>
+      <c r="M76">
+        <v>-5.958E-09</v>
+      </c>
+      <c r="N76">
+        <v>-2.6937E-09</v>
+      </c>
+      <c r="O76">
+        <v>-1.3927E-09</v>
+      </c>
+      <c r="P76">
+        <v>-1.2433E-10</v>
+      </c>
+      <c r="Q76">
+        <v>-7.8179E-10</v>
+      </c>
+      <c r="R76">
+        <v>-3.7312E-10</v>
+      </c>
+      <c r="S76">
+        <v>-1.206E-09</v>
+      </c>
+      <c r="T76">
+        <v>-1.794E-10</v>
+      </c>
+      <c r="U76">
+        <v>-3.5936E-10</v>
+      </c>
+      <c r="V76">
+        <v>-6.117099999999999E-10</v>
+      </c>
+      <c r="W76">
+        <v>7.2412E-11</v>
+      </c>
+      <c r="X76">
+        <v>-3.9284E-09</v>
+      </c>
+      <c r="Y76">
+        <v>-5.121E-10</v>
+      </c>
+      <c r="Z76">
+        <v>-9.603500000000001E-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>-40</v>
+      </c>
+      <c r="B77">
+        <v>-4.343E-09</v>
+      </c>
+      <c r="C77">
+        <v>-7.3383E-10</v>
+      </c>
+      <c r="D77">
+        <v>-1.4343E-09</v>
+      </c>
+      <c r="E77">
+        <v>1.3575E-11</v>
+      </c>
+      <c r="F77">
+        <v>3.6019E-10</v>
+      </c>
+      <c r="G77">
+        <v>-3.6383E-09</v>
+      </c>
+      <c r="H77">
+        <v>-1.7186E-09</v>
+      </c>
+      <c r="I77">
+        <v>6.642500000000001E-11</v>
+      </c>
+      <c r="J77">
+        <v>-1.3121E-10</v>
+      </c>
+      <c r="K77">
+        <v>3.3575E-11</v>
+      </c>
+      <c r="L77">
+        <v>5.4475E-11</v>
+      </c>
+      <c r="M77">
+        <v>-2.3062E-09</v>
+      </c>
+      <c r="N77">
+        <v>-2.1771E-09</v>
+      </c>
+      <c r="O77">
+        <v>-5.1619E-10</v>
+      </c>
+      <c r="P77">
+        <v>1.1463E-10</v>
+      </c>
+      <c r="Q77">
+        <v>-3.4701E-10</v>
+      </c>
+      <c r="R77">
+        <v>3.5587E-11</v>
+      </c>
+      <c r="S77">
+        <v>-1.9674E-10</v>
+      </c>
+      <c r="T77">
+        <v>2.9538E-10</v>
+      </c>
+      <c r="U77">
+        <v>9.082499999999999E-11</v>
+      </c>
+      <c r="V77">
+        <v>-7.593799999999999E-11</v>
+      </c>
+      <c r="W77">
+        <v>3.0446E-10</v>
+      </c>
+      <c r="X77">
+        <v>-6.3951E-10</v>
+      </c>
+      <c r="Y77">
+        <v>1.6005E-10</v>
+      </c>
+      <c r="Z77">
+        <v>5.3275E-11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>-30</v>
+      </c>
+      <c r="B78">
+        <v>-5.6836E-10</v>
+      </c>
+      <c r="C78">
+        <v>-4.0672E-11</v>
+      </c>
+      <c r="D78">
+        <v>-1.2968E-10</v>
+      </c>
+      <c r="E78">
+        <v>8.1137E-11</v>
+      </c>
+      <c r="F78">
+        <v>4.957E-10</v>
+      </c>
+      <c r="G78">
+        <v>-2.3044E-09</v>
+      </c>
+      <c r="H78">
+        <v>-3.2424E-10</v>
+      </c>
+      <c r="I78">
+        <v>8.6362E-11</v>
+      </c>
+      <c r="J78">
+        <v>5.0987E-11</v>
+      </c>
+      <c r="K78">
+        <v>2.3951E-10</v>
+      </c>
+      <c r="L78">
+        <v>2.1649E-10</v>
+      </c>
+      <c r="M78">
+        <v>-3.9908E-10</v>
+      </c>
+      <c r="N78">
+        <v>-1.224E-09</v>
+      </c>
+      <c r="O78">
+        <v>5.79E-11</v>
+      </c>
+      <c r="P78">
+        <v>3.5397E-10</v>
+      </c>
+      <c r="Q78">
+        <v>-1.7075E-11</v>
+      </c>
+      <c r="R78">
+        <v>4.9213E-11</v>
+      </c>
+      <c r="S78">
+        <v>9.4562E-11</v>
+      </c>
+      <c r="T78">
+        <v>3.1501E-10</v>
+      </c>
+      <c r="U78">
+        <v>1.648E-10</v>
+      </c>
+      <c r="V78">
+        <v>6.1925E-11</v>
+      </c>
+      <c r="W78">
+        <v>4.209E-10</v>
+      </c>
+      <c r="X78">
+        <v>-3.035E-11</v>
+      </c>
+      <c r="Y78">
+        <v>2.3106E-10</v>
+      </c>
+      <c r="Z78">
+        <v>2.5193E-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>-20</v>
+      </c>
+      <c r="B79">
+        <v>1.1233E-10</v>
+      </c>
+      <c r="C79">
+        <v>1.4743E-10</v>
+      </c>
+      <c r="D79">
+        <v>-1.5275E-11</v>
+      </c>
+      <c r="E79">
+        <v>1.1448E-10</v>
+      </c>
+      <c r="F79">
+        <v>5.3275E-10</v>
+      </c>
+      <c r="G79">
+        <v>-8.7292E-10</v>
+      </c>
+      <c r="H79">
+        <v>9.200000000000001E-11</v>
+      </c>
+      <c r="I79">
+        <v>9.3E-11</v>
+      </c>
+      <c r="J79">
+        <v>9.33E-11</v>
+      </c>
+      <c r="K79">
+        <v>1.7553E-10</v>
+      </c>
+      <c r="L79">
+        <v>2.0295E-10</v>
+      </c>
+      <c r="M79">
+        <v>-6.1112E-11</v>
+      </c>
+      <c r="N79">
+        <v>-5.7391E-10</v>
+      </c>
+      <c r="O79">
+        <v>9.8187E-11</v>
+      </c>
+      <c r="P79">
+        <v>4.2315E-10</v>
+      </c>
+      <c r="Q79">
+        <v>-7.450000000000001E-12</v>
+      </c>
+      <c r="R79">
+        <v>1.151E-10</v>
+      </c>
+      <c r="S79">
+        <v>1.1429E-10</v>
+      </c>
+      <c r="T79">
+        <v>3.844E-10</v>
+      </c>
+      <c r="U79">
+        <v>1.9265E-10</v>
+      </c>
+      <c r="V79">
+        <v>8.875E-11</v>
+      </c>
+      <c r="W79">
+        <v>4.6392E-10</v>
+      </c>
+      <c r="X79">
+        <v>-2.545E-11</v>
+      </c>
+      <c r="Y79">
+        <v>2.4299E-10</v>
+      </c>
+      <c r="Z79">
+        <v>2.2971E-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>-10</v>
+      </c>
+      <c r="B80">
+        <v>3.1077E-10</v>
+      </c>
+      <c r="C80">
+        <v>1.2205E-10</v>
+      </c>
+      <c r="D80">
+        <v>1.4712E-11</v>
+      </c>
+      <c r="E80">
+        <v>1.2795E-10</v>
+      </c>
+      <c r="F80">
+        <v>6.1334E-10</v>
+      </c>
+      <c r="G80">
+        <v>-5.5493E-10</v>
+      </c>
+      <c r="H80">
+        <v>3.2328E-10</v>
+      </c>
+      <c r="I80">
+        <v>1.6099E-10</v>
+      </c>
+      <c r="J80">
+        <v>8.4412E-11</v>
+      </c>
+      <c r="K80">
+        <v>2.9565E-10</v>
+      </c>
+      <c r="L80">
+        <v>2.2996E-10</v>
+      </c>
+      <c r="M80">
+        <v>-1.4279E-10</v>
+      </c>
+      <c r="N80">
+        <v>-3.8852E-10</v>
+      </c>
+      <c r="O80">
+        <v>1.4455E-10</v>
+      </c>
+      <c r="P80">
+        <v>4.1419E-10</v>
+      </c>
+      <c r="Q80">
+        <v>-1.1938E-11</v>
+      </c>
+      <c r="R80">
+        <v>1.2701E-10</v>
+      </c>
+      <c r="S80">
+        <v>2.0426E-10</v>
+      </c>
+      <c r="T80">
+        <v>4.4859E-10</v>
+      </c>
+      <c r="U80">
+        <v>2.7875E-10</v>
+      </c>
+      <c r="V80">
+        <v>9.2813E-11</v>
+      </c>
+      <c r="W80">
+        <v>5.244E-10</v>
+      </c>
+      <c r="X80">
+        <v>9.857500000000001E-11</v>
+      </c>
+      <c r="Y80">
+        <v>2.2063E-10</v>
+      </c>
+      <c r="Z80">
+        <v>2.4012E-10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>2.2422E-10</v>
+      </c>
+      <c r="C81">
+        <v>1.6959E-10</v>
+      </c>
+      <c r="D81">
+        <v>2.4E-11</v>
+      </c>
+      <c r="E81">
+        <v>2.0273E-10</v>
+      </c>
+      <c r="F81">
+        <v>6.0524E-10</v>
+      </c>
+      <c r="G81">
+        <v>-3.2034E-10</v>
+      </c>
+      <c r="H81">
+        <v>2.9998E-10</v>
+      </c>
+      <c r="I81">
+        <v>1.047E-10</v>
+      </c>
+      <c r="J81">
+        <v>1.404E-10</v>
+      </c>
+      <c r="K81">
+        <v>1.2695E-10</v>
+      </c>
+      <c r="L81">
+        <v>3.0751E-10</v>
+      </c>
+      <c r="M81">
+        <v>-6.950000000000001E-11</v>
+      </c>
+      <c r="N81">
+        <v>-2.813E-10</v>
+      </c>
+      <c r="O81">
+        <v>8.5787E-11</v>
+      </c>
+      <c r="P81">
+        <v>4.447E-10</v>
+      </c>
+      <c r="Q81">
+        <v>7.5112E-11</v>
+      </c>
+      <c r="R81">
+        <v>1.3696E-10</v>
+      </c>
+      <c r="S81">
+        <v>1.5371E-10</v>
+      </c>
+      <c r="T81">
+        <v>5.4364E-10</v>
+      </c>
+      <c r="U81">
+        <v>2.1091E-10</v>
+      </c>
+      <c r="V81">
+        <v>8.595E-11</v>
+      </c>
+      <c r="W81">
+        <v>6.8166E-10</v>
+      </c>
+      <c r="X81">
+        <v>1.1029E-10</v>
+      </c>
+      <c r="Y81">
+        <v>2.0664E-10</v>
+      </c>
+      <c r="Z81">
+        <v>2.5751E-10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>1.7343E-10</v>
+      </c>
+      <c r="C82">
+        <v>2.0494E-10</v>
+      </c>
+      <c r="D82">
+        <v>1.9425E-11</v>
+      </c>
+      <c r="E82">
+        <v>1.7515E-10</v>
+      </c>
+      <c r="F82">
+        <v>6.6795E-10</v>
+      </c>
+      <c r="G82">
+        <v>-2.5425E-10</v>
+      </c>
+      <c r="H82">
+        <v>8.4429E-10</v>
+      </c>
+      <c r="I82">
+        <v>1.884E-10</v>
+      </c>
+      <c r="J82">
+        <v>1.8767E-10</v>
+      </c>
+      <c r="K82">
+        <v>2.3562E-10</v>
+      </c>
+      <c r="L82">
+        <v>3.2352E-10</v>
+      </c>
+      <c r="M82">
+        <v>1.375E-12</v>
+      </c>
+      <c r="N82">
+        <v>-2.8971E-10</v>
+      </c>
+      <c r="O82">
+        <v>6.125E-11</v>
+      </c>
+      <c r="P82">
+        <v>5.2415E-10</v>
+      </c>
+      <c r="Q82">
+        <v>6.1862E-11</v>
+      </c>
+      <c r="R82">
+        <v>1.2556E-10</v>
+      </c>
+      <c r="S82">
+        <v>1.299E-10</v>
+      </c>
+      <c r="T82">
+        <v>5.1288E-10</v>
+      </c>
+      <c r="U82">
+        <v>2.3015E-10</v>
+      </c>
+      <c r="V82">
+        <v>1.6144E-10</v>
+      </c>
+      <c r="W82">
+        <v>6.2236E-10</v>
+      </c>
+      <c r="X82">
+        <v>3.025E-11</v>
+      </c>
+      <c r="Y82">
+        <v>2.6027E-10</v>
+      </c>
+      <c r="Z82">
+        <v>3.5025E-10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>2.7789E-10</v>
+      </c>
+      <c r="C83">
+        <v>2.1692E-10</v>
+      </c>
+      <c r="D83">
+        <v>-1.435E-11</v>
+      </c>
+      <c r="E83">
+        <v>2.2586E-10</v>
+      </c>
+      <c r="F83">
+        <v>7.9225E-10</v>
+      </c>
+      <c r="G83">
+        <v>-4.8025E-10</v>
+      </c>
+      <c r="H83">
+        <v>2.7376E-09</v>
+      </c>
+      <c r="I83">
+        <v>1.7009E-10</v>
+      </c>
+      <c r="J83">
+        <v>1.2671E-10</v>
+      </c>
+      <c r="K83">
+        <v>2.3018E-10</v>
+      </c>
+      <c r="L83">
+        <v>4.2665E-10</v>
+      </c>
+      <c r="M83">
+        <v>-4.0862E-11</v>
+      </c>
+      <c r="N83">
+        <v>-3.0257E-10</v>
+      </c>
+      <c r="O83">
+        <v>1.4969E-10</v>
+      </c>
+      <c r="P83">
+        <v>4.1325E-10</v>
+      </c>
+      <c r="Q83">
+        <v>1.675E-11</v>
+      </c>
+      <c r="R83">
+        <v>1.1069E-10</v>
+      </c>
+      <c r="S83">
+        <v>4.515E-11</v>
+      </c>
+      <c r="T83">
+        <v>5.5498E-10</v>
+      </c>
+      <c r="U83">
+        <v>3.0889E-10</v>
+      </c>
+      <c r="V83">
+        <v>1.7116E-10</v>
+      </c>
+      <c r="W83">
+        <v>6.9285E-10</v>
+      </c>
+      <c r="X83">
+        <v>7.460000000000001E-11</v>
+      </c>
+      <c r="Y83">
+        <v>2.6436E-10</v>
+      </c>
+      <c r="Z83">
+        <v>3.2266E-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>3.0817E-10</v>
+      </c>
+      <c r="C84">
+        <v>2.2818E-10</v>
+      </c>
+      <c r="D84">
+        <v>-5.115E-11</v>
+      </c>
+      <c r="E84">
+        <v>1.2901E-10</v>
+      </c>
+      <c r="F84">
+        <v>8.7392E-10</v>
+      </c>
+      <c r="G84">
+        <v>-3.6368E-10</v>
+      </c>
+      <c r="H84">
+        <v>2.4324E-09</v>
+      </c>
+      <c r="I84">
+        <v>1.4704E-10</v>
+      </c>
+      <c r="J84">
+        <v>1.8172E-10</v>
+      </c>
+      <c r="K84">
+        <v>2.3462E-10</v>
+      </c>
+      <c r="L84">
+        <v>3.3429E-10</v>
+      </c>
+      <c r="M84">
+        <v>-6.501199999999999E-11</v>
+      </c>
+      <c r="N84">
+        <v>-2.9948E-10</v>
+      </c>
+      <c r="O84">
+        <v>1.0469E-10</v>
+      </c>
+      <c r="P84">
+        <v>4.348E-10</v>
+      </c>
+      <c r="Q84">
+        <v>3.5712E-11</v>
+      </c>
+      <c r="R84">
+        <v>1.7361E-10</v>
+      </c>
+      <c r="S84">
+        <v>2.8238E-11</v>
+      </c>
+      <c r="T84">
+        <v>6.375999999999999E-10</v>
+      </c>
+      <c r="U84">
+        <v>2.9023E-10</v>
+      </c>
+      <c r="V84">
+        <v>1.7839E-10</v>
+      </c>
+      <c r="W84">
+        <v>7.4171E-10</v>
+      </c>
+      <c r="X84">
+        <v>-7.9375E-12</v>
+      </c>
+      <c r="Y84">
+        <v>2.5738E-10</v>
+      </c>
+      <c r="Z84">
+        <v>2.3525E-10</v>
       </c>
     </row>
   </sheetData>
